--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_23_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2268740.490689965</v>
+        <v>-2269407.286810215</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4795783.348386017</v>
+        <v>4795783.348386014</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058541</v>
+        <v>632041.4518058547</v>
       </c>
     </row>
     <row r="9">
@@ -1373,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>69.62613768519009</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>22.58881163589406</v>
       </c>
       <c r="T11" t="n">
-        <v>17.76019284593445</v>
+        <v>17.76019284593451</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.49679044823577</v>
       </c>
       <c r="V11" t="n">
-        <v>55.04907887222585</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.29207558827154</v>
+        <v>10.29207558827159</v>
       </c>
       <c r="U12" t="n">
-        <v>32.57485987793716</v>
+        <v>32.57485987793721</v>
       </c>
       <c r="V12" t="n">
-        <v>35.99613671235124</v>
+        <v>35.9961367123513</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396059</v>
+        <v>62.05179937396065</v>
       </c>
       <c r="X12" t="n">
-        <v>12.6601302364196</v>
+        <v>12.66013023641966</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73150193097462</v>
+        <v>18.73150193097467</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6907843578795</v>
+        <v>30.69078435787955</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512932</v>
+        <v>19.08561116512938</v>
       </c>
       <c r="U13" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="V13" t="n">
-        <v>40.4562309813989</v>
+        <v>40.45623098139896</v>
       </c>
       <c r="W13" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519153</v>
+        <v>17.26667120519159</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111742</v>
+        <v>12.48848861111748</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>72.80927171816035</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>82.66266089709399</v>
@@ -1622,7 +1622,7 @@
         <v>82.66266089709399</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>32.46026723633174</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>22.58881163589406</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>17.76019284593451</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.29207558827154</v>
+        <v>10.29207558827159</v>
       </c>
       <c r="U15" t="n">
-        <v>32.57485987793716</v>
+        <v>32.57485987793721</v>
       </c>
       <c r="V15" t="n">
-        <v>35.99613671235124</v>
+        <v>35.9961367123513</v>
       </c>
       <c r="W15" t="n">
-        <v>62.05179937396059</v>
+        <v>62.05179937396065</v>
       </c>
       <c r="X15" t="n">
-        <v>12.6601302364196</v>
+        <v>12.66013023641966</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097462</v>
+        <v>18.73150193097467</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.6907843578795</v>
+        <v>30.69078435787955</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512932</v>
+        <v>19.08561116512938</v>
       </c>
       <c r="U16" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="V16" t="n">
-        <v>40.4562309813989</v>
+        <v>40.45623098139896</v>
       </c>
       <c r="W16" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="X16" t="n">
-        <v>17.26667120519153</v>
+        <v>17.26667120519159</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111742</v>
+        <v>12.48848861111748</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.92381382931671</v>
+        <v>37.92381382931677</v>
       </c>
       <c r="C17" t="n">
-        <v>14.0420708326622</v>
+        <v>14.04207083266226</v>
       </c>
       <c r="D17" t="n">
-        <v>1.608733093710669</v>
+        <v>1.608733093710725</v>
       </c>
       <c r="E17" t="n">
-        <v>35.31548551311954</v>
+        <v>35.3154855131196</v>
       </c>
       <c r="F17" t="n">
-        <v>67.03582309149687</v>
+        <v>67.03582309149692</v>
       </c>
       <c r="G17" t="n">
-        <v>82.66266089709399</v>
+        <v>82.662660897094</v>
       </c>
       <c r="H17" t="n">
-        <v>10.73420125866866</v>
+        <v>10.73420125866872</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.733037277250276</v>
+        <v>1.733037277250332</v>
       </c>
       <c r="X17" t="n">
-        <v>23.61928774618951</v>
+        <v>23.61928774618957</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.12214086993328</v>
+        <v>46.12214086993333</v>
       </c>
     </row>
     <row r="18">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.92381382931671</v>
+        <v>37.92381382931677</v>
       </c>
       <c r="C20" t="n">
-        <v>14.0420708326622</v>
+        <v>14.04207083266226</v>
       </c>
       <c r="D20" t="n">
-        <v>1.608733093710669</v>
+        <v>1.608733093710184</v>
       </c>
       <c r="E20" t="n">
-        <v>35.31548551311954</v>
+        <v>35.3154855131196</v>
       </c>
       <c r="F20" t="n">
-        <v>67.03582309149687</v>
+        <v>67.03582309149692</v>
       </c>
       <c r="G20" t="n">
-        <v>82.66266089709399</v>
+        <v>82.662660897094</v>
       </c>
       <c r="H20" t="n">
-        <v>10.73420125866863</v>
+        <v>10.73420125866869</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.733037277250276</v>
+        <v>1.733037277250332</v>
       </c>
       <c r="X20" t="n">
-        <v>23.61928774618951</v>
+        <v>23.61928774618957</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.12214086993328</v>
+        <v>46.12214086993333</v>
       </c>
     </row>
     <row r="21">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.92381382931671</v>
+        <v>37.92381382931677</v>
       </c>
       <c r="C23" t="n">
-        <v>14.0420708326622</v>
+        <v>14.04207083266226</v>
       </c>
       <c r="D23" t="n">
-        <v>1.608733093710669</v>
+        <v>1.608733093710725</v>
       </c>
       <c r="E23" t="n">
-        <v>35.31548551311954</v>
+        <v>35.3154855131196</v>
       </c>
       <c r="F23" t="n">
-        <v>67.03582309149687</v>
+        <v>67.03582309149692</v>
       </c>
       <c r="G23" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H23" t="n">
-        <v>10.73420125866863</v>
+        <v>10.73420125866872</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.733037277250276</v>
+        <v>1.733037277250332</v>
       </c>
       <c r="X23" t="n">
-        <v>23.61928774618951</v>
+        <v>23.61928774618957</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.12214086993328</v>
+        <v>46.12214086993333</v>
       </c>
     </row>
     <row r="24">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2417617096389</v>
+        <v>161.2417617096388</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3600187129844</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D26" t="n">
         <v>124.9266809740328</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6334333934417</v>
+        <v>158.6334333934416</v>
       </c>
       <c r="F26" t="n">
         <v>190.353770971819</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9806087774161</v>
+        <v>205.980608777416</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0521491389908</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I26" t="n">
-        <v>27.6983636516745</v>
+        <v>27.69836365167444</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39611717075053</v>
+        <v>14.39611717075047</v>
       </c>
       <c r="T26" t="n">
-        <v>9.567498380790994</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30409598309225</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0343049409576</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W26" t="n">
         <v>125.0509851575724</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9372356265117</v>
+        <v>146.9372356265116</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4400887502554</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>106.9593966520397</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.099381123128076</v>
+        <v>2.099381123128019</v>
       </c>
       <c r="U27" t="n">
-        <v>24.3821654127937</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80344224720778</v>
+        <v>27.80344224720773</v>
       </c>
       <c r="W27" t="n">
-        <v>53.85910490881713</v>
+        <v>214.0537171854081</v>
       </c>
       <c r="X27" t="n">
-        <v>4.467435771276143</v>
+        <v>4.467435771276087</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>10.5388074658311</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.49808989273604</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89291669998586</v>
+        <v>10.8929166999858</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81078260145017</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26353651625544</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46522842114086</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X28" t="n">
-        <v>9.073976740048067</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.295794145973957</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="29">
@@ -2880,13 +2880,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>214.1582381895108</v>
+        <v>2.099381123128019</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38216541279364</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80344224720773</v>
+        <v>98.66785462871837</v>
       </c>
       <c r="W30" t="n">
-        <v>53.85910490881707</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>4.467435771276087</v>
@@ -3032,22 +3032,22 @@
         <v>137.3600187129843</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9266809740328</v>
+        <v>124.9266809740327</v>
       </c>
       <c r="E32" t="n">
         <v>158.6334333934416</v>
       </c>
       <c r="F32" t="n">
-        <v>190.353770971819</v>
+        <v>190.3537709718189</v>
       </c>
       <c r="G32" t="n">
         <v>205.980608777416</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0521491389908</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69836365167445</v>
+        <v>27.69836365167442</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39611717075048</v>
+        <v>14.39611717075046</v>
       </c>
       <c r="T32" t="n">
-        <v>9.567498380790939</v>
+        <v>9.56749838079091</v>
       </c>
       <c r="U32" t="n">
-        <v>37.3040959830922</v>
+        <v>37.30409598309217</v>
       </c>
       <c r="V32" t="n">
         <v>108.0343049409575</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0509851575724</v>
+        <v>125.0509851575723</v>
       </c>
       <c r="X32" t="n">
         <v>146.9372356265116</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4400887502554</v>
+        <v>169.4400887502553</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>107.1407760227504</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.099381123128019</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38216541279364</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V33" t="n">
-        <v>75.60006684171825</v>
+        <v>27.8034422472077</v>
       </c>
       <c r="W33" t="n">
-        <v>53.85910490881707</v>
+        <v>124.7235172903273</v>
       </c>
       <c r="X33" t="n">
-        <v>4.467435771276087</v>
+        <v>4.467435771276058</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5388074658311</v>
+        <v>10.53880746583107</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.49808989273598</v>
+        <v>22.49808989273595</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8929166999858</v>
+        <v>10.89291669998578</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81078260145011</v>
+        <v>75.81078260145009</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26353651625539</v>
+        <v>32.26353651625536</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46522842114081</v>
+        <v>77.46522842114078</v>
       </c>
       <c r="X34" t="n">
-        <v>9.07397674004801</v>
+        <v>9.073976740047982</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.2957941459739</v>
+        <v>4.295794145973872</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3266,16 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C35" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D35" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E35" t="n">
         <v>135.8000765582185</v>
       </c>
       <c r="F35" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G35" t="n">
         <v>183.1472519421929</v>
@@ -3284,7 +3284,7 @@
         <v>111.2187923037676</v>
       </c>
       <c r="I35" t="n">
-        <v>4.865006816451285</v>
+        <v>4.865006816451341</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.47073914786904</v>
+        <v>14.4707391478691</v>
       </c>
       <c r="V35" t="n">
-        <v>85.20094810573434</v>
+        <v>85.2009481057344</v>
       </c>
       <c r="W35" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X35" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="36">
@@ -3399,13 +3399,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.548808577570483</v>
+        <v>1.54880857757054</v>
       </c>
       <c r="V36" t="n">
-        <v>4.97008541198457</v>
+        <v>4.970085411984627</v>
       </c>
       <c r="W36" t="n">
-        <v>31.02574807359392</v>
+        <v>31.02574807359397</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.97742576622696</v>
+        <v>52.97742576622701</v>
       </c>
       <c r="V37" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032286</v>
       </c>
       <c r="W37" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591771</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.4084048744156</v>
+        <v>138.4084048744157</v>
       </c>
       <c r="C41" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D41" t="n">
-        <v>102.0933241388095</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E41" t="n">
-        <v>135.8000765582184</v>
+        <v>135.8000765582185</v>
       </c>
       <c r="F41" t="n">
-        <v>167.5204141365957</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G41" t="n">
-        <v>183.1472519421928</v>
+        <v>183.1472519421929</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2187923037675</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I41" t="n">
-        <v>4.865006816451228</v>
+        <v>4.865006816451341</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.47073914786898</v>
+        <v>14.4707391478691</v>
       </c>
       <c r="V41" t="n">
-        <v>85.20094810573428</v>
+        <v>85.2009481057344</v>
       </c>
       <c r="W41" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X41" t="n">
-        <v>124.1038787912884</v>
+        <v>124.1038787912885</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="42">
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.548808577570426</v>
+        <v>1.54880857757054</v>
       </c>
       <c r="V42" t="n">
-        <v>4.970085411984513</v>
+        <v>4.970085411984627</v>
       </c>
       <c r="W42" t="n">
-        <v>31.02574807359386</v>
+        <v>31.02574807359397</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.9774257662269</v>
+        <v>52.97742576622701</v>
       </c>
       <c r="V43" t="n">
-        <v>9.430179681032172</v>
+        <v>9.430179681032286</v>
       </c>
       <c r="W43" t="n">
-        <v>54.63187158591759</v>
+        <v>54.63187158591771</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,25 +3977,25 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C44" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D44" t="n">
-        <v>102.0933241388096</v>
+        <v>102.0933241388097</v>
       </c>
       <c r="E44" t="n">
         <v>135.8000765582185</v>
       </c>
       <c r="F44" t="n">
-        <v>167.5204141365958</v>
+        <v>167.5204141365959</v>
       </c>
       <c r="G44" t="n">
         <v>183.1472519421929</v>
       </c>
       <c r="H44" t="n">
-        <v>111.2187923037676</v>
+        <v>111.2187923037677</v>
       </c>
       <c r="I44" t="n">
-        <v>4.865006816451285</v>
+        <v>4.865006816451341</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786909</v>
       </c>
       <c r="V44" t="n">
-        <v>85.20094810573434</v>
+        <v>85.2009481057344</v>
       </c>
       <c r="W44" t="n">
-        <v>102.2176283223492</v>
+        <v>102.2176283223493</v>
       </c>
       <c r="X44" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.6067319150322</v>
+        <v>146.6067319150323</v>
       </c>
     </row>
     <row r="45">
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.548808577570483</v>
+        <v>1.54880857757054</v>
       </c>
       <c r="V45" t="n">
-        <v>4.97008541198457</v>
+        <v>4.970085411984627</v>
       </c>
       <c r="W45" t="n">
-        <v>31.02574807359392</v>
+        <v>31.02574807359397</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.97742576622696</v>
+        <v>52.97742576622701</v>
       </c>
       <c r="V46" t="n">
-        <v>9.430179681032229</v>
+        <v>9.430179681032286</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63187158591765</v>
+        <v>54.63187158591771</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.6082874113514</v>
+        <v>243.9377194165939</v>
       </c>
       <c r="C11" t="n">
-        <v>173.6082874113514</v>
+        <v>243.9377194165939</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6082874113514</v>
+        <v>173.6082874113513</v>
       </c>
       <c r="E11" t="n">
-        <v>173.6082874113514</v>
+        <v>173.6082874113513</v>
       </c>
       <c r="F11" t="n">
+        <v>173.6082874113513</v>
+      </c>
+      <c r="G11" t="n">
         <v>90.11065014155943</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.613012871767519</v>
       </c>
       <c r="H11" t="n">
         <v>6.613012871767519</v>
@@ -5039,52 +5039,52 @@
         <v>6.613012871767519</v>
       </c>
       <c r="J11" t="n">
-        <v>25.74209161283713</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K11" t="n">
-        <v>25.74209161283713</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="L11" t="n">
-        <v>74.35104747126998</v>
+        <v>218.8940373064465</v>
       </c>
       <c r="M11" t="n">
-        <v>156.187081759393</v>
+        <v>294.414097973462</v>
       </c>
       <c r="N11" t="n">
-        <v>233.6498594237776</v>
+        <v>294.414097973462</v>
       </c>
       <c r="O11" t="n">
-        <v>238.3895076767344</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="P11" t="n">
-        <v>238.3895076767344</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q11" t="n">
-        <v>320.2255419648574</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="R11" t="n">
         <v>330.6506435883759</v>
       </c>
       <c r="S11" t="n">
-        <v>330.6506435883759</v>
+        <v>307.8336621379779</v>
       </c>
       <c r="T11" t="n">
-        <v>312.7110548551088</v>
+        <v>289.8940734047107</v>
       </c>
       <c r="U11" t="n">
-        <v>312.7110548551088</v>
+        <v>243.9377194165939</v>
       </c>
       <c r="V11" t="n">
-        <v>257.1059246811433</v>
+        <v>243.9377194165939</v>
       </c>
       <c r="W11" t="n">
-        <v>257.1059246811433</v>
+        <v>243.9377194165939</v>
       </c>
       <c r="X11" t="n">
-        <v>257.1059246811433</v>
+        <v>243.9377194165939</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.6082874113514</v>
+        <v>243.9377194165939</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.613012871767519</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="C12" t="n">
-        <v>6.613012871767519</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="D12" t="n">
-        <v>6.613012871767519</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="E12" t="n">
-        <v>6.613012871767519</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="F12" t="n">
-        <v>6.613012871767519</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="G12" t="n">
-        <v>20.6340384733551</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="H12" t="n">
-        <v>98.82395203810381</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="I12" t="n">
-        <v>180.6599863262269</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="J12" t="n">
-        <v>180.6599863262269</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="K12" t="n">
-        <v>180.6599863262269</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="L12" t="n">
-        <v>180.6599863262269</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="M12" t="n">
-        <v>180.6599863262269</v>
+        <v>16.14255313158941</v>
       </c>
       <c r="N12" t="n">
-        <v>180.6599863262269</v>
+        <v>97.97858741971245</v>
       </c>
       <c r="O12" t="n">
-        <v>180.6599863262269</v>
+        <v>97.97858741971245</v>
       </c>
       <c r="P12" t="n">
-        <v>180.6599863262269</v>
+        <v>97.97858741971245</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.6599863262269</v>
+        <v>97.97858741971245</v>
       </c>
       <c r="R12" t="n">
-        <v>180.6599863262269</v>
+        <v>167.6097053736755</v>
       </c>
       <c r="S12" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="T12" t="n">
-        <v>170.2639503784778</v>
+        <v>170.2639503784781</v>
       </c>
       <c r="U12" t="n">
-        <v>137.3600515118746</v>
+        <v>137.3600515118749</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0003174589946</v>
+        <v>101.0003174589948</v>
       </c>
       <c r="W12" t="n">
-        <v>38.32173223277179</v>
+        <v>38.3217322327719</v>
       </c>
       <c r="X12" t="n">
-        <v>25.533721892954</v>
+        <v>25.53372189295406</v>
       </c>
       <c r="Y12" t="n">
         <v>6.613012871767519</v>
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.37851777446959</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C13" t="n">
-        <v>37.72723006259556</v>
+        <v>44.42666007053532</v>
       </c>
       <c r="D13" t="n">
-        <v>96.60266267541245</v>
+        <v>44.42666007053532</v>
       </c>
       <c r="E13" t="n">
-        <v>158.9495392363302</v>
+        <v>44.42666007053532</v>
       </c>
       <c r="F13" t="n">
-        <v>224.0181822010885</v>
+        <v>44.42666007053532</v>
       </c>
       <c r="G13" t="n">
-        <v>259.6160383196437</v>
+        <v>80.02451618909043</v>
       </c>
       <c r="H13" t="n">
-        <v>259.6160383196437</v>
+        <v>80.02451618909043</v>
       </c>
       <c r="I13" t="n">
-        <v>259.6160383196437</v>
+        <v>119.5877325478696</v>
       </c>
       <c r="J13" t="n">
-        <v>259.6160383196437</v>
+        <v>119.5877325478696</v>
       </c>
       <c r="K13" t="n">
-        <v>259.6160383196437</v>
+        <v>131.1360029974456</v>
       </c>
       <c r="L13" t="n">
-        <v>259.6160383196437</v>
+        <v>131.1360029974456</v>
       </c>
       <c r="M13" t="n">
-        <v>259.6160383196437</v>
+        <v>131.1360029974456</v>
       </c>
       <c r="N13" t="n">
-        <v>259.6160383196437</v>
+        <v>212.9720372855687</v>
       </c>
       <c r="O13" t="n">
-        <v>259.6160383196437</v>
+        <v>294.8080715736917</v>
       </c>
       <c r="P13" t="n">
-        <v>259.6160383196437</v>
+        <v>294.8080715736917</v>
       </c>
       <c r="Q13" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736917</v>
       </c>
       <c r="R13" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736917</v>
       </c>
       <c r="S13" t="n">
-        <v>263.8072792930051</v>
+        <v>263.8072792930053</v>
       </c>
       <c r="T13" t="n">
-        <v>244.5288841767128</v>
+        <v>244.528884176713</v>
       </c>
       <c r="U13" t="n">
-        <v>161.0312469069209</v>
+        <v>161.0312469069211</v>
       </c>
       <c r="V13" t="n">
-        <v>120.1663671277301</v>
+        <v>120.1663671277302</v>
       </c>
       <c r="W13" t="n">
-        <v>36.66872985793817</v>
+        <v>36.66872985793829</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249218</v>
+        <v>19.22764783249224</v>
       </c>
       <c r="Y13" t="n">
         <v>6.613012871767519</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247.153006318584</v>
+        <v>206.3964361349188</v>
       </c>
       <c r="C14" t="n">
-        <v>247.153006318584</v>
+        <v>206.3964361349188</v>
       </c>
       <c r="D14" t="n">
-        <v>247.153006318584</v>
+        <v>206.3964361349188</v>
       </c>
       <c r="E14" t="n">
-        <v>173.6082874113513</v>
+        <v>206.3964361349188</v>
       </c>
       <c r="F14" t="n">
-        <v>90.11065014155943</v>
+        <v>122.8987988651269</v>
       </c>
       <c r="G14" t="n">
-        <v>6.613012871767519</v>
+        <v>39.40116159533493</v>
       </c>
       <c r="H14" t="n">
         <v>6.613012871767519</v>
@@ -5276,52 +5276,52 @@
         <v>6.613012871767519</v>
       </c>
       <c r="J14" t="n">
-        <v>6.613012871767519</v>
+        <v>79.09069572422683</v>
       </c>
       <c r="K14" t="n">
-        <v>88.44904715989057</v>
+        <v>160.9267300123499</v>
       </c>
       <c r="L14" t="n">
-        <v>88.44904715989057</v>
+        <v>160.9267300123499</v>
       </c>
       <c r="M14" t="n">
-        <v>170.2850814480136</v>
+        <v>160.9267300123499</v>
       </c>
       <c r="N14" t="n">
-        <v>247.7478591123981</v>
+        <v>238.3895076767344</v>
       </c>
       <c r="O14" t="n">
-        <v>248.8146093002529</v>
+        <v>238.3895076767344</v>
       </c>
       <c r="P14" t="n">
-        <v>248.8146093002529</v>
+        <v>320.2255419648575</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.6506435883759</v>
+        <v>320.2255419648575</v>
       </c>
       <c r="R14" t="n">
         <v>330.6506435883759</v>
       </c>
       <c r="S14" t="n">
-        <v>330.6506435883759</v>
+        <v>307.8336621379779</v>
       </c>
       <c r="T14" t="n">
-        <v>330.6506435883759</v>
+        <v>289.8940734047107</v>
       </c>
       <c r="U14" t="n">
-        <v>330.6506435883759</v>
+        <v>289.8940734047107</v>
       </c>
       <c r="V14" t="n">
-        <v>330.6506435883759</v>
+        <v>289.8940734047107</v>
       </c>
       <c r="W14" t="n">
-        <v>330.6506435883759</v>
+        <v>289.8940734047107</v>
       </c>
       <c r="X14" t="n">
-        <v>330.6506435883759</v>
+        <v>289.8940734047107</v>
       </c>
       <c r="Y14" t="n">
-        <v>247.153006318584</v>
+        <v>289.8940734047107</v>
       </c>
     </row>
     <row r="15">
@@ -5331,73 +5331,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.613012871767519</v>
+        <v>34.23627977909887</v>
       </c>
       <c r="C15" t="n">
-        <v>6.613012871767519</v>
+        <v>34.23627977909887</v>
       </c>
       <c r="D15" t="n">
-        <v>51.63867730697525</v>
+        <v>34.23627977909887</v>
       </c>
       <c r="E15" t="n">
-        <v>51.63867730697525</v>
+        <v>34.23627977909887</v>
       </c>
       <c r="F15" t="n">
-        <v>71.82614944746059</v>
+        <v>34.23627977909887</v>
       </c>
       <c r="G15" t="n">
-        <v>127.1816490370705</v>
+        <v>34.23627977909887</v>
       </c>
       <c r="H15" t="n">
-        <v>127.1816490370705</v>
+        <v>34.23627977909887</v>
       </c>
       <c r="I15" t="n">
-        <v>127.1816490370705</v>
+        <v>34.23627977909887</v>
       </c>
       <c r="J15" t="n">
-        <v>127.1816490370705</v>
+        <v>116.0723140672219</v>
       </c>
       <c r="K15" t="n">
-        <v>127.1816490370705</v>
+        <v>116.0723140672219</v>
       </c>
       <c r="L15" t="n">
-        <v>127.1816490370705</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="M15" t="n">
-        <v>127.1816490370705</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="N15" t="n">
-        <v>127.1816490370705</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="O15" t="n">
-        <v>127.1816490370705</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1816490370705</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.1816490370705</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="R15" t="n">
-        <v>167.6097053736751</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="S15" t="n">
-        <v>180.6599863262269</v>
+        <v>180.6599863262272</v>
       </c>
       <c r="T15" t="n">
-        <v>170.2639503784778</v>
+        <v>170.2639503784781</v>
       </c>
       <c r="U15" t="n">
-        <v>137.3600515118746</v>
+        <v>137.3600515118749</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0003174589946</v>
+        <v>101.0003174589948</v>
       </c>
       <c r="W15" t="n">
-        <v>38.32173223277179</v>
+        <v>38.3217322327719</v>
       </c>
       <c r="X15" t="n">
-        <v>25.533721892954</v>
+        <v>25.53372189295406</v>
       </c>
       <c r="Y15" t="n">
         <v>6.613012871767519</v>
@@ -5416,67 +5416,67 @@
         <v>6.613012871767519</v>
       </c>
       <c r="D16" t="n">
-        <v>65.4884454845844</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E16" t="n">
-        <v>127.8353220455022</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F16" t="n">
-        <v>127.8353220455022</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G16" t="n">
-        <v>127.8353220455022</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H16" t="n">
-        <v>127.8353220455022</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I16" t="n">
-        <v>127.8353220455022</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J16" t="n">
-        <v>190.2054876999732</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K16" t="n">
-        <v>258.5973430524245</v>
+        <v>75.00486822421881</v>
       </c>
       <c r="L16" t="n">
-        <v>258.5973430524245</v>
+        <v>149.0067038145219</v>
       </c>
       <c r="M16" t="n">
-        <v>258.5973430524245</v>
+        <v>212.9720372855687</v>
       </c>
       <c r="N16" t="n">
-        <v>294.8080715736914</v>
+        <v>212.9720372855687</v>
       </c>
       <c r="O16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736917</v>
       </c>
       <c r="P16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736917</v>
       </c>
       <c r="Q16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736917</v>
       </c>
       <c r="R16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.8080715736917</v>
       </c>
       <c r="S16" t="n">
-        <v>263.8072792930051</v>
+        <v>263.8072792930053</v>
       </c>
       <c r="T16" t="n">
-        <v>244.5288841767128</v>
+        <v>244.528884176713</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0312469069209</v>
+        <v>161.0312469069211</v>
       </c>
       <c r="V16" t="n">
-        <v>120.1663671277301</v>
+        <v>120.1663671277302</v>
       </c>
       <c r="W16" t="n">
-        <v>36.66872985793817</v>
+        <v>36.66872985793829</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249218</v>
+        <v>19.22764783249224</v>
       </c>
       <c r="Y16" t="n">
         <v>6.613012871767519</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.1473307371741</v>
+        <v>220.1473307371739</v>
       </c>
       <c r="C17" t="n">
-        <v>205.963420805192</v>
+        <v>205.9634208051918</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822519</v>
+        <v>204.3384378822516</v>
       </c>
       <c r="E17" t="n">
-        <v>168.6662302932423</v>
+        <v>168.6662302932419</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9532776755686</v>
+        <v>100.9532776755682</v>
       </c>
       <c r="G17" t="n">
-        <v>17.45564040577626</v>
+        <v>17.45564040577632</v>
       </c>
       <c r="H17" t="n">
         <v>6.613012871767519</v>
@@ -5513,40 +5513,40 @@
         <v>6.613012871767519</v>
       </c>
       <c r="J17" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K17" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="L17" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M17" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="N17" t="n">
-        <v>88.44904715989057</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="O17" t="n">
-        <v>170.2850814480136</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="P17" t="n">
-        <v>252.1211157361367</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="Q17" t="n">
-        <v>330.6506435883759</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="R17" t="n">
-        <v>330.6506435883759</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="S17" t="n">
-        <v>330.6506435883759</v>
+        <v>233.683802790282</v>
       </c>
       <c r="T17" t="n">
-        <v>330.6506435883759</v>
+        <v>233.683802790282</v>
       </c>
       <c r="U17" t="n">
-        <v>330.6506435883759</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V17" t="n">
         <v>330.6506435883759</v>
@@ -5555,10 +5555,10 @@
         <v>328.9001008840827</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737903</v>
+        <v>305.0422344737902</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930495</v>
+        <v>258.4542133930494</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y18" t="n">
-        <v>330.6506435883759</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="19">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.1473307371741</v>
+        <v>220.1473307371739</v>
       </c>
       <c r="C20" t="n">
-        <v>205.9634208051921</v>
+        <v>205.9634208051917</v>
       </c>
       <c r="D20" t="n">
-        <v>204.3384378822519</v>
+        <v>204.338437882252</v>
       </c>
       <c r="E20" t="n">
         <v>168.6662302932423</v>
@@ -5741,49 +5741,49 @@
         <v>100.9532776755686</v>
       </c>
       <c r="G20" t="n">
-        <v>17.45564040577624</v>
+        <v>17.4556404057763</v>
       </c>
       <c r="H20" t="n">
         <v>6.613012871767519</v>
       </c>
       <c r="I20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="J20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="K20" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="L20" t="n">
-        <v>6.613012871767519</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="M20" t="n">
-        <v>85.14254072400681</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="N20" t="n">
-        <v>85.14254072400681</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="O20" t="n">
-        <v>85.14254072400681</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="P20" t="n">
-        <v>85.14254072400681</v>
+        <v>151.8477685021589</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.9785750121299</v>
+        <v>233.683802790282</v>
       </c>
       <c r="R20" t="n">
-        <v>166.9785750121299</v>
+        <v>233.683802790282</v>
       </c>
       <c r="S20" t="n">
-        <v>166.9785750121299</v>
+        <v>233.683802790282</v>
       </c>
       <c r="T20" t="n">
-        <v>248.8146093002529</v>
+        <v>233.683802790282</v>
       </c>
       <c r="U20" t="n">
-        <v>330.6506435883759</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V20" t="n">
         <v>330.6506435883759</v>
@@ -5792,10 +5792,10 @@
         <v>328.9001008840827</v>
       </c>
       <c r="X20" t="n">
-        <v>305.0422344737903</v>
+        <v>305.0422344737902</v>
       </c>
       <c r="Y20" t="n">
-        <v>258.4542133930496</v>
+        <v>258.4542133930494</v>
       </c>
     </row>
     <row r="21">
@@ -5969,55 +5969,55 @@
         <v>205.9634208051917</v>
       </c>
       <c r="D23" t="n">
-        <v>204.3384378822519</v>
+        <v>204.3384378822516</v>
       </c>
       <c r="E23" t="n">
-        <v>168.6662302932424</v>
+        <v>168.6662302932419</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9532776755688</v>
+        <v>100.9532776755682</v>
       </c>
       <c r="G23" t="n">
-        <v>17.45564040577624</v>
+        <v>17.45564040577632</v>
       </c>
       <c r="H23" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I23" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J23" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K23" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L23" t="n">
-        <v>88.44904715989054</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M23" t="n">
-        <v>88.44904715989054</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N23" t="n">
-        <v>151.8477685021588</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O23" t="n">
-        <v>151.8477685021588</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P23" t="n">
-        <v>151.8477685021588</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.8477685021588</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R23" t="n">
-        <v>233.6838027902818</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="S23" t="n">
-        <v>233.6838027902818</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="T23" t="n">
-        <v>233.6838027902818</v>
+        <v>233.6838027902819</v>
       </c>
       <c r="U23" t="n">
         <v>315.5198370784049</v>
@@ -6026,10 +6026,10 @@
         <v>330.6506435883758</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9001008840825</v>
+        <v>328.9001008840826</v>
       </c>
       <c r="X23" t="n">
-        <v>305.04223447379</v>
+        <v>305.0422344737901</v>
       </c>
       <c r="Y23" t="n">
         <v>258.4542133930493</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.989143861834</v>
+        <v>1024.989143861833</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2416502123546</v>
+        <v>886.2416502123535</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0530835719173</v>
+        <v>760.0530835719164</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8172922654105</v>
+        <v>599.8172922654097</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5407559302398</v>
+        <v>407.540755930239</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4795349429505</v>
+        <v>199.4795349429501</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07332369144466</v>
+        <v>64.07332369144457</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09517858874314</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8138854154935</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K26" t="n">
-        <v>377.39293892921</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7189186691553</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707782</v>
+        <v>930.3987315707768</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.578533116675</v>
+        <v>1218.578533116674</v>
       </c>
       <c r="O26" t="n">
-        <v>1465.532102613102</v>
+        <v>1465.532102613101</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.028607199426</v>
+        <v>1663.028607199425</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.223060293146</v>
+        <v>1786.223060293145</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.758929437157</v>
+        <v>1804.758929437156</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.217396941449</v>
+        <v>1790.217396941448</v>
       </c>
       <c r="T26" t="n">
         <v>1780.553257162872</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.872352129446</v>
+        <v>1742.872352129445</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.746791583024</v>
+        <v>1633.746791583023</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.432665161234</v>
+        <v>1507.432665161233</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.011215033444</v>
+        <v>1359.011215033443</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.859610235206</v>
+        <v>1187.859610235205</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>144.1349731867631</v>
+        <v>375.8535194385495</v>
       </c>
       <c r="C27" t="n">
-        <v>144.1349731867631</v>
+        <v>375.8535194385495</v>
       </c>
       <c r="D27" t="n">
-        <v>144.1349731867631</v>
+        <v>375.8535194385495</v>
       </c>
       <c r="E27" t="n">
-        <v>144.1349731867631</v>
+        <v>375.8535194385495</v>
       </c>
       <c r="F27" t="n">
-        <v>144.1349731867631</v>
+        <v>215.4258031557936</v>
       </c>
       <c r="G27" t="n">
-        <v>144.1349731867631</v>
+        <v>215.4258031557936</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09517858874314</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09517858874314</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09517858874314</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09223206028358</v>
+        <v>68.62147438233997</v>
       </c>
       <c r="L27" t="n">
-        <v>193.8151253226841</v>
+        <v>187.3443676447405</v>
       </c>
       <c r="M27" t="n">
-        <v>377.113806180254</v>
+        <v>370.6430485023104</v>
       </c>
       <c r="N27" t="n">
-        <v>577.2129895868133</v>
+        <v>577.2129895868123</v>
       </c>
       <c r="O27" t="n">
-        <v>577.2129895868133</v>
+        <v>577.2129895868123</v>
       </c>
       <c r="P27" t="n">
-        <v>662.0605388381915</v>
+        <v>662.0605388381906</v>
       </c>
       <c r="Q27" t="n">
-        <v>662.0605388381915</v>
+        <v>662.0605388381906</v>
       </c>
       <c r="R27" t="n">
-        <v>662.0605388381915</v>
+        <v>662.0605388381906</v>
       </c>
       <c r="S27" t="n">
-        <v>662.0605388381915</v>
+        <v>662.0605388381906</v>
       </c>
       <c r="T27" t="n">
-        <v>659.9399518451329</v>
+        <v>659.939951845132</v>
       </c>
       <c r="U27" t="n">
-        <v>635.31150193322</v>
+        <v>635.3115019332192</v>
       </c>
       <c r="V27" t="n">
-        <v>607.2272168350304</v>
+        <v>607.2272168350296</v>
       </c>
       <c r="W27" t="n">
-        <v>552.8240805634979</v>
+        <v>391.011340890173</v>
       </c>
       <c r="X27" t="n">
-        <v>548.3115191783704</v>
+        <v>386.4987795050456</v>
       </c>
       <c r="Y27" t="n">
-        <v>322.6708261136981</v>
+        <v>375.8535194385495</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09517858874314</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09517858874314</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09517858874314</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09517858874314</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09517858874314</v>
+        <v>109.2745890739935</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09517858874314</v>
+        <v>109.2745890739935</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09517858874314</v>
+        <v>109.2745890739935</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09517858874314</v>
+        <v>156.9485729532648</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09517858874314</v>
+        <v>249.0078276615814</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09517858874314</v>
+        <v>249.0078276615814</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09517858874314</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09517858874314</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="N28" t="n">
-        <v>36.09517858874314</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="O28" t="n">
-        <v>210.4666992382927</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="P28" t="n">
-        <v>210.4666992382927</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7419715358042</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7419715358042</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0166282098082</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0136820482063</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4371339659334</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8477031414329</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W28" t="n">
-        <v>49.59999766553307</v>
+        <v>49.59999766553293</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477744</v>
+        <v>40.43436459477736</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09517858874314</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.989143861832</v>
+        <v>1024.989143861833</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2416502123531</v>
+        <v>886.2416502123535</v>
       </c>
       <c r="D29" t="n">
-        <v>760.053083571916</v>
+        <v>760.0530835719164</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654093</v>
+        <v>599.8172922654097</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5407559302386</v>
+        <v>407.540755930239</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4795349429496</v>
+        <v>199.4795349429501</v>
       </c>
       <c r="H29" t="n">
         <v>64.07332369144457</v>
@@ -6461,25 +6461,25 @@
         <v>36.09517858874312</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8138854154941</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3929389292106</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7189186691561</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M29" t="n">
-        <v>930.3987315707768</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.578533116674</v>
+        <v>1218.578533116673</v>
       </c>
       <c r="O29" t="n">
-        <v>1465.532102613101</v>
+        <v>1465.5321026131</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.028607199425</v>
+        <v>1663.028607199424</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.223060293145</v>
@@ -6494,13 +6494,13 @@
         <v>1780.553257162871</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.872352129444</v>
+        <v>1742.872352129445</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.746791583022</v>
+        <v>1633.746791583023</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.432665161232</v>
+        <v>1507.432665161233</v>
       </c>
       <c r="X29" t="n">
         <v>1359.011215033443</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>323.4653933882543</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C30" t="n">
-        <v>323.4653933882543</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D30" t="n">
-        <v>323.4653933882543</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E30" t="n">
-        <v>323.4653933882543</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F30" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G30" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H30" t="n">
         <v>36.09517858874312</v>
@@ -6546,46 +6546,46 @@
         <v>75.09223206028356</v>
       </c>
       <c r="L30" t="n">
-        <v>138.9678598778609</v>
+        <v>193.8151253226841</v>
       </c>
       <c r="M30" t="n">
-        <v>322.2665407354308</v>
+        <v>237.4189914840534</v>
       </c>
       <c r="N30" t="n">
-        <v>528.8364818199327</v>
+        <v>443.9889325685554</v>
       </c>
       <c r="O30" t="n">
-        <v>662.06053883819</v>
+        <v>577.2129895868127</v>
       </c>
       <c r="P30" t="n">
-        <v>662.06053883819</v>
+        <v>662.060538838191</v>
       </c>
       <c r="Q30" t="n">
-        <v>662.06053883819</v>
+        <v>662.060538838191</v>
       </c>
       <c r="R30" t="n">
-        <v>662.06053883819</v>
+        <v>662.060538838191</v>
       </c>
       <c r="S30" t="n">
-        <v>662.06053883819</v>
+        <v>662.060538838191</v>
       </c>
       <c r="T30" t="n">
-        <v>445.7390861215125</v>
+        <v>659.9399518451323</v>
       </c>
       <c r="U30" t="n">
-        <v>421.1106362095997</v>
+        <v>420.3160689350433</v>
       </c>
       <c r="V30" t="n">
-        <v>393.0263511114101</v>
+        <v>320.6515693100752</v>
       </c>
       <c r="W30" t="n">
-        <v>338.6232148398777</v>
+        <v>51.25300004036654</v>
       </c>
       <c r="X30" t="n">
-        <v>334.1106534547503</v>
+        <v>46.74043865523917</v>
       </c>
       <c r="Y30" t="n">
-        <v>323.4653933882543</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09517858874312</v>
+        <v>70.97145101193728</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09517858874312</v>
+        <v>116.8958657311972</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09517858874312</v>
+        <v>116.8958657311972</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09517858874312</v>
+        <v>116.8958657311972</v>
       </c>
       <c r="F31" t="n">
-        <v>109.2745890739935</v>
+        <v>166.9067212484132</v>
       </c>
       <c r="G31" t="n">
-        <v>109.2745890739935</v>
+        <v>166.9067212484132</v>
       </c>
       <c r="H31" t="n">
-        <v>155.8731762122632</v>
+        <v>213.5053083866829</v>
       </c>
       <c r="I31" t="n">
-        <v>155.8731762122632</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="J31" t="n">
-        <v>155.8731762122632</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="K31" t="n">
         <v>261.1792922659541</v>
@@ -6677,46 +6677,46 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C32" t="n">
-        <v>886.241650212354</v>
+        <v>886.2416502123541</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0530835719169</v>
+        <v>760.053083571917</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8172922654102</v>
+        <v>599.8172922654103</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5407559302395</v>
+        <v>407.5407559302396</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4795349429506</v>
+        <v>199.4795349429507</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07332369144478</v>
+        <v>64.07332369144491</v>
       </c>
       <c r="I32" t="n">
         <v>36.09517858874312</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8138854154943</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292108</v>
+        <v>377.3929389292102</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7189186691562</v>
+        <v>636.7189186691558</v>
       </c>
       <c r="M32" t="n">
-        <v>930.3987315707769</v>
+        <v>930.3987315707764</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.578533116674</v>
+        <v>1218.578533116673</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.532102613101</v>
+        <v>1465.5321026131</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.028607199425</v>
+        <v>1663.028607199424</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.223060293145</v>
@@ -6728,13 +6728,13 @@
         <v>1790.217396941448</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.553257162871</v>
+        <v>1780.553257162872</v>
       </c>
       <c r="U32" t="n">
         <v>1742.872352129445</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.746791583023</v>
+        <v>1633.746791583024</v>
       </c>
       <c r="W32" t="n">
         <v>1507.432665161233</v>
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>304.7459009550853</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C33" t="n">
-        <v>304.7459009550853</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D33" t="n">
-        <v>304.7459009550853</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E33" t="n">
-        <v>304.7459009550853</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F33" t="n">
-        <v>144.3181846723294</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G33" t="n">
-        <v>144.3181846723294</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H33" t="n">
-        <v>144.3181846723294</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="I33" t="n">
         <v>36.09517858874312</v>
@@ -6780,49 +6780,49 @@
         <v>36.09517858874312</v>
       </c>
       <c r="K33" t="n">
-        <v>75.09223206028356</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="L33" t="n">
-        <v>193.8151253226841</v>
+        <v>54.12031062648296</v>
       </c>
       <c r="M33" t="n">
-        <v>377.113806180254</v>
+        <v>237.4189914840528</v>
       </c>
       <c r="N33" t="n">
-        <v>443.9889325685532</v>
+        <v>443.9889325685548</v>
       </c>
       <c r="O33" t="n">
-        <v>577.2129895868105</v>
+        <v>577.2129895868121</v>
       </c>
       <c r="P33" t="n">
-        <v>662.0605388381888</v>
+        <v>662.0605388381904</v>
       </c>
       <c r="Q33" t="n">
-        <v>655.9554523906711</v>
+        <v>662.0605388381904</v>
       </c>
       <c r="R33" t="n">
-        <v>655.9554523906711</v>
+        <v>662.0605388381904</v>
       </c>
       <c r="S33" t="n">
-        <v>655.9554523906711</v>
+        <v>662.0605388381904</v>
       </c>
       <c r="T33" t="n">
-        <v>653.8348653976125</v>
+        <v>444.9445188469555</v>
       </c>
       <c r="U33" t="n">
-        <v>629.2064154856997</v>
+        <v>205.3206359368664</v>
       </c>
       <c r="V33" t="n">
-        <v>552.8427116051762</v>
+        <v>177.2363508386769</v>
       </c>
       <c r="W33" t="n">
-        <v>498.4395753336438</v>
+        <v>51.25300004036648</v>
       </c>
       <c r="X33" t="n">
-        <v>493.9270139485164</v>
+        <v>46.74043865523915</v>
       </c>
       <c r="Y33" t="n">
-        <v>483.2817538820204</v>
+        <v>36.09517858874312</v>
       </c>
     </row>
     <row r="34">
@@ -6832,73 +6832,73 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.97145101193728</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="C34" t="n">
-        <v>70.97145101193728</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="D34" t="n">
-        <v>70.97145101193728</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="E34" t="n">
-        <v>141.4290950933471</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="F34" t="n">
-        <v>141.4290950933471</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.4290950933471</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="H34" t="n">
-        <v>188.0276822316168</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="I34" t="n">
-        <v>188.0276822316168</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="J34" t="n">
-        <v>188.0276822316168</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="K34" t="n">
-        <v>188.0276822316168</v>
+        <v>36.09517858874312</v>
       </c>
       <c r="L34" t="n">
-        <v>188.0276822316168</v>
+        <v>185.5203561027685</v>
       </c>
       <c r="M34" t="n">
-        <v>188.0276822316168</v>
+        <v>185.5203561027685</v>
       </c>
       <c r="N34" t="n">
-        <v>188.0276822316168</v>
+        <v>185.5203561027685</v>
       </c>
       <c r="O34" t="n">
-        <v>188.0276822316168</v>
+        <v>185.5203561027685</v>
       </c>
       <c r="P34" t="n">
-        <v>261.1792922659541</v>
+        <v>185.5203561027685</v>
       </c>
       <c r="Q34" t="n">
-        <v>261.1792922659541</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358035</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0166282098078</v>
+        <v>248.0166282098076</v>
       </c>
       <c r="T34" t="n">
-        <v>237.013682048206</v>
+        <v>237.0136820482059</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4371339659331</v>
+        <v>160.437133965933</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8477031414327</v>
+        <v>127.8477031414326</v>
       </c>
       <c r="W34" t="n">
-        <v>49.59999766553293</v>
+        <v>49.59999766553288</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43436459477736</v>
+        <v>40.43436459477734</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09517858874312</v>
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9281533672752</v>
+        <v>856.9281533672749</v>
       </c>
       <c r="C35" t="n">
-        <v>741.2446565210518</v>
+        <v>741.2446565210515</v>
       </c>
       <c r="D35" t="n">
-        <v>638.1200866838703</v>
+        <v>638.12008668387</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806193</v>
+        <v>500.948292180619</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487044</v>
+        <v>331.735752648704</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646712</v>
+        <v>146.7385284646707</v>
       </c>
       <c r="H35" t="n">
-        <v>34.39631401642134</v>
+        <v>34.3963140164214</v>
       </c>
       <c r="I35" t="n">
         <v>29.4821657169756</v>
       </c>
       <c r="J35" t="n">
-        <v>138.5434146428202</v>
+        <v>187.8058958105969</v>
       </c>
       <c r="K35" t="n">
-        <v>366.7274914234076</v>
+        <v>274.0629619596911</v>
       </c>
       <c r="L35" t="n">
-        <v>569.2144842616951</v>
+        <v>555.9939649665074</v>
       </c>
       <c r="M35" t="n">
-        <v>652.1772732818033</v>
+        <v>872.278801134999</v>
       </c>
       <c r="N35" t="n">
-        <v>962.9620980945713</v>
+        <v>1183.063625947767</v>
       </c>
       <c r="O35" t="n">
-        <v>1232.520690857869</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="P35" t="n">
         <v>1452.622218711064</v>
@@ -6980,7 +6980,7 @@
         <v>1144.822230932374</v>
       </c>
       <c r="Y35" t="n">
-        <v>996.7346229373921</v>
+        <v>996.734622937392</v>
       </c>
     </row>
     <row r="36">
@@ -7032,25 +7032,25 @@
         <v>29.4821657169756</v>
       </c>
       <c r="P36" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="R36" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="S36" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="T36" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="U36" t="n">
-        <v>65.84159348018619</v>
+        <v>65.8415934801863</v>
       </c>
       <c r="V36" t="n">
-        <v>60.82130518525229</v>
+        <v>60.82130518525234</v>
       </c>
       <c r="W36" t="n">
         <v>29.4821657169756</v>
@@ -7072,64 +7072,64 @@
         <v>29.4821657169756</v>
       </c>
       <c r="C37" t="n">
-        <v>98.01160370310647</v>
+        <v>58.11263628970181</v>
       </c>
       <c r="D37" t="n">
-        <v>98.01160370310647</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="E37" t="n">
-        <v>98.01160370310647</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="F37" t="n">
-        <v>98.01160370310647</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="G37" t="n">
-        <v>98.01160370310647</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="H37" t="n">
-        <v>98.01160370310647</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="I37" t="n">
-        <v>98.01160370310647</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="J37" t="n">
-        <v>98.01160370310647</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="K37" t="n">
-        <v>98.01160370310647</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="L37" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="M37" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="N37" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="O37" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="P37" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="Q37" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="R37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="S37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="T37" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="U37" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086448</v>
       </c>
       <c r="V37" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961974</v>
       </c>
       <c r="W37" t="n">
         <v>29.4821657169756</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.9281533672755</v>
+        <v>856.928153367276</v>
       </c>
       <c r="C38" t="n">
-        <v>741.2446565210521</v>
+        <v>741.2446565210528</v>
       </c>
       <c r="D38" t="n">
-        <v>638.1200866838706</v>
+        <v>638.1200866838712</v>
       </c>
       <c r="E38" t="n">
-        <v>500.9482921806193</v>
+        <v>500.9482921806199</v>
       </c>
       <c r="F38" t="n">
-        <v>331.7357526487044</v>
+        <v>331.7357526487049</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7385284646712</v>
+        <v>146.7385284646714</v>
       </c>
       <c r="H38" t="n">
         <v>34.39631401642134</v>
@@ -7172,34 +7172,34 @@
         <v>29.4821657169756</v>
       </c>
       <c r="J38" t="n">
-        <v>187.805895810597</v>
+        <v>116.9073568655104</v>
       </c>
       <c r="K38" t="n">
-        <v>415.9899725911844</v>
+        <v>345.0914336460978</v>
       </c>
       <c r="L38" t="n">
-        <v>464.5989284496173</v>
+        <v>627.0224366529142</v>
       </c>
       <c r="M38" t="n">
-        <v>619.3892481387497</v>
+        <v>943.3072728214058</v>
       </c>
       <c r="N38" t="n">
-        <v>930.1740729515177</v>
+        <v>943.3072728214058</v>
       </c>
       <c r="O38" t="n">
-        <v>1199.732665714815</v>
+        <v>1212.865865584703</v>
       </c>
       <c r="P38" t="n">
-        <v>1419.83419356801</v>
+        <v>1432.967393437898</v>
       </c>
       <c r="Q38" t="n">
-        <v>1419.83419356801</v>
+        <v>1432.967393437898</v>
       </c>
       <c r="R38" t="n">
-        <v>1460.975085978892</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="S38" t="n">
-        <v>1460.975085978892</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="T38" t="n">
         <v>1474.10828584878</v>
@@ -7211,13 +7211,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X38" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y38" t="n">
-        <v>996.7346229373924</v>
+        <v>996.7346229373928</v>
       </c>
     </row>
     <row r="39">
@@ -7266,19 +7266,19 @@
         <v>29.4821657169756</v>
       </c>
       <c r="O39" t="n">
-        <v>46.87941063386906</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="P39" t="n">
-        <v>46.87941063386906</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.87941063386906</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="R39" t="n">
-        <v>46.87941063386906</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="S39" t="n">
-        <v>46.87941063386906</v>
+        <v>67.40604658884324</v>
       </c>
       <c r="T39" t="n">
         <v>67.40604658884324</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="C40" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="D40" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="E40" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="F40" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="G40" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="H40" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704068</v>
       </c>
       <c r="I40" t="n">
-        <v>29.4821657169756</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="J40" t="n">
-        <v>29.4821657169756</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="K40" t="n">
-        <v>29.4821657169756</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="L40" t="n">
-        <v>29.4821657169756</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="M40" t="n">
-        <v>29.4821657169756</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="N40" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="O40" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="P40" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="Q40" t="n">
-        <v>115.536157153161</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="R40" t="n">
         <v>147.7038596898815</v>
@@ -7385,58 +7385,58 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672761</v>
+        <v>856.9281533672754</v>
       </c>
       <c r="C41" t="n">
-        <v>741.2446565210527</v>
+        <v>741.244656521052</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838712</v>
+        <v>638.1200866838705</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806203</v>
+        <v>500.9482921806194</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487054</v>
+        <v>331.7357526487044</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646721</v>
+        <v>146.7385284646712</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642129</v>
+        <v>34.3963140164214</v>
       </c>
       <c r="I41" t="n">
         <v>29.4821657169756</v>
       </c>
       <c r="J41" t="n">
-        <v>187.805895810597</v>
+        <v>187.8058958105969</v>
       </c>
       <c r="K41" t="n">
-        <v>415.9899725911845</v>
+        <v>320.4446403366015</v>
       </c>
       <c r="L41" t="n">
-        <v>697.920975598001</v>
+        <v>602.3756433434178</v>
       </c>
       <c r="M41" t="n">
-        <v>985.3217827754032</v>
+        <v>918.6604795119093</v>
       </c>
       <c r="N41" t="n">
-        <v>1015.539808639395</v>
+        <v>996.1232571762939</v>
       </c>
       <c r="O41" t="n">
-        <v>1254.006757995585</v>
+        <v>1265.681849939591</v>
       </c>
       <c r="P41" t="n">
-        <v>1474.10828584878</v>
+        <v>1265.681849939591</v>
       </c>
       <c r="Q41" t="n">
-        <v>1474.10828584878</v>
+        <v>1411.481326300183</v>
       </c>
       <c r="R41" t="n">
-        <v>1474.10828584878</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="S41" t="n">
-        <v>1474.10828584878</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T41" t="n">
         <v>1474.10828584878</v>
@@ -7448,13 +7448,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.179684256909</v>
+        <v>1270.179684256908</v>
       </c>
       <c r="X41" t="n">
         <v>1144.822230932375</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373928</v>
+        <v>996.7346229373925</v>
       </c>
     </row>
     <row r="42">
@@ -7464,67 +7464,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="C42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="D42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="E42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="F42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="G42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="H42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="I42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="J42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="K42" t="n">
-        <v>29.4821657169756</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="L42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="M42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="N42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="O42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="P42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="Q42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="R42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="S42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="T42" t="n">
-        <v>67.40604658884307</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="U42" t="n">
-        <v>65.84159348018608</v>
+        <v>65.8415934801863</v>
       </c>
       <c r="V42" t="n">
-        <v>60.82130518525223</v>
+        <v>60.82130518525234</v>
       </c>
       <c r="W42" t="n">
         <v>29.4821657169756</v>
@@ -7543,67 +7543,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704063</v>
       </c>
       <c r="C43" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704063</v>
       </c>
       <c r="D43" t="n">
-        <v>29.4821657169756</v>
+        <v>86.96346140704063</v>
       </c>
       <c r="E43" t="n">
-        <v>122.5448330652564</v>
+        <v>86.96346140704063</v>
       </c>
       <c r="F43" t="n">
-        <v>122.5448330652564</v>
+        <v>86.96346140704063</v>
       </c>
       <c r="G43" t="n">
-        <v>122.5448330652564</v>
+        <v>86.96346140704063</v>
       </c>
       <c r="H43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="I43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="J43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="K43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="L43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="M43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="N43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="O43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="P43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.5448330652564</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="R43" t="n">
-        <v>135.8828239559963</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="S43" t="n">
-        <v>135.8828239559963</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="T43" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086425</v>
+        <v>94.19130841086448</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961963</v>
+        <v>84.66587438961974</v>
       </c>
       <c r="W43" t="n">
         <v>29.4821657169756</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672755</v>
+        <v>856.9281533672759</v>
       </c>
       <c r="C44" t="n">
         <v>741.2446565210523</v>
@@ -7631,46 +7631,46 @@
         <v>638.1200866838708</v>
       </c>
       <c r="E44" t="n">
-        <v>500.9482921806195</v>
+        <v>500.9482921806194</v>
       </c>
       <c r="F44" t="n">
-        <v>331.7357526487046</v>
+        <v>331.7357526487044</v>
       </c>
       <c r="G44" t="n">
-        <v>146.7385284646714</v>
+        <v>146.7385284646712</v>
       </c>
       <c r="H44" t="n">
-        <v>34.39631401642134</v>
+        <v>34.3963140164214</v>
       </c>
       <c r="I44" t="n">
         <v>29.4821657169756</v>
       </c>
       <c r="J44" t="n">
-        <v>79.32703524540821</v>
+        <v>187.8058958105969</v>
       </c>
       <c r="K44" t="n">
-        <v>108.6959797512337</v>
+        <v>415.9899725911843</v>
       </c>
       <c r="L44" t="n">
-        <v>390.62698275805</v>
+        <v>697.9209755980006</v>
       </c>
       <c r="M44" t="n">
-        <v>706.9118189265416</v>
+        <v>1014.205811766492</v>
       </c>
       <c r="N44" t="n">
-        <v>1017.69664373931</v>
+        <v>1324.99063657926</v>
       </c>
       <c r="O44" t="n">
-        <v>1053.933189354223</v>
+        <v>1361.227182194174</v>
       </c>
       <c r="P44" t="n">
-        <v>1274.034717207419</v>
+        <v>1361.227182194174</v>
       </c>
       <c r="Q44" t="n">
-        <v>1419.83419356801</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="R44" t="n">
-        <v>1460.975085978892</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="S44" t="n">
         <v>1460.975085978892</v>
@@ -7685,13 +7685,13 @@
         <v>1373.429813875443</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256909</v>
       </c>
       <c r="X44" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7346229373924</v>
+        <v>996.7346229373927</v>
       </c>
     </row>
     <row r="45">
@@ -7710,58 +7710,58 @@
         <v>29.4821657169756</v>
       </c>
       <c r="E45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="F45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="G45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="H45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="I45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="J45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="L45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="M45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="N45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="O45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="P45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.40604658884324</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="R45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="S45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="T45" t="n">
-        <v>67.40604658884324</v>
+        <v>67.40604658884341</v>
       </c>
       <c r="U45" t="n">
-        <v>65.84159348018619</v>
+        <v>65.8415934801863</v>
       </c>
       <c r="V45" t="n">
-        <v>60.82130518525229</v>
+        <v>60.82130518525234</v>
       </c>
       <c r="W45" t="n">
         <v>29.4821657169756</v>
@@ -7804,43 +7804,43 @@
         <v>29.4821657169756</v>
       </c>
       <c r="J46" t="n">
-        <v>122.5681221588097</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="K46" t="n">
-        <v>122.5681221588097</v>
+        <v>29.4821657169756</v>
       </c>
       <c r="L46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="M46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="N46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="O46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="P46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="R46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="S46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="T46" t="n">
-        <v>147.7038596898815</v>
+        <v>147.7038596898817</v>
       </c>
       <c r="U46" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086448</v>
       </c>
       <c r="V46" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961974</v>
       </c>
       <c r="W46" t="n">
         <v>29.4821657169756</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>63.34035913843787</v>
       </c>
       <c r="K11" t="n">
-        <v>210.0462273461148</v>
+        <v>93.24597309853765</v>
       </c>
       <c r="L11" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>290.1466336104413</v>
+        <v>283.7668622759893</v>
       </c>
       <c r="N11" t="n">
-        <v>283.4008070189657</v>
+        <v>0.5027928518899785</v>
       </c>
       <c r="O11" t="n">
-        <v>15.01000137650077</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P11" t="n">
-        <v>208.5255628951208</v>
+        <v>17.22683858619944</v>
       </c>
       <c r="Q11" t="n">
-        <v>103.996627801047</v>
+        <v>21.3339669039531</v>
       </c>
       <c r="R11" t="n">
-        <v>42.58424007769262</v>
+        <v>32.05383439737092</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8766,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>184.6200133257551</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.48862345364904</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,16 +8845,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>111.3378805152112</v>
@@ -8863,7 +8863,7 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P13" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>53.8874789003937</v>
       </c>
       <c r="K14" t="n">
-        <v>93.2459730985376</v>
+        <v>93.24597309853765</v>
       </c>
       <c r="L14" t="n">
-        <v>16.89172741308241</v>
+        <v>221.5445116161334</v>
       </c>
       <c r="M14" t="n">
-        <v>290.1466336104413</v>
+        <v>207.4839727133473</v>
       </c>
       <c r="N14" t="n">
         <v>283.4008070189657</v>
       </c>
       <c r="O14" t="n">
-        <v>211.2334715723406</v>
+        <v>210.1559461300631</v>
       </c>
       <c r="P14" t="n">
-        <v>208.5255628951208</v>
+        <v>99.88949948329343</v>
       </c>
       <c r="Q14" t="n">
-        <v>103.996627801047</v>
+        <v>21.3339669039531</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9003,16 +9003,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.368442177338995</v>
+        <v>11.58111238442031</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>132.1095653351018</v>
       </c>
       <c r="M15" t="n">
-        <v>116.626698625586</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9088,10 +9088,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>105.2836065989273</v>
+        <v>6.72599083089068</v>
       </c>
       <c r="M16" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9100,7 +9100,7 @@
         <v>105.6509998050918</v>
       </c>
       <c r="P16" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>171.373473584151</v>
+        <v>164.8373547175413</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9963,7 +9963,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>304.0777397080138</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>120.6530283274244</v>
@@ -10194,10 +10194,10 @@
         <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
-        <v>184.9032655295474</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>301.77688131</v>
+        <v>160.6710078794943</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
@@ -10206,7 +10206,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>120.6592788752669</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10428,16 +10428,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L33" t="n">
-        <v>240.3045437566416</v>
+        <v>138.5896334287014</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>169.5079851441148</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>59.81452464385046</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
         <v>210.0462273461148</v>
@@ -10601,13 +10601,13 @@
         <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>137.5801139476182</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.027783097004189</v>
+        <v>1.027783097004242</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M36" t="n">
         <v>116.626698625586</v>
@@ -10677,16 +10677,16 @@
         <v>101.9573524286611</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>120.6592788752669</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>66.91391068996964</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,13 +10741,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K37" t="n">
         <v>69.16996059133484</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M37" t="n">
         <v>115.6742602693208</v>
@@ -10762,7 +10762,7 @@
         <v>87.48425302749862</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189657</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10841,7 +10841,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.3387674483387</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>42.58424007769262</v>
@@ -10896,16 +10896,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M39" t="n">
         <v>116.626698625586</v>
@@ -10914,13 +10914,13 @@
         <v>101.9573524286611</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P39" t="n">
-        <v>120.6592788752669</v>
+        <v>158.9662292508908</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>103.2504904643702</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
         <v>69.16996059133484</v>
@@ -10990,16 +10990,16 @@
         <v>115.6742602693208</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>111.3378805152112</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>42.34223702878295</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O41" t="n">
-        <v>215.3528170470387</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P41" t="n">
-        <v>208.5255628951208</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>137.5801139476182</v>
       </c>
       <c r="R41" t="n">
-        <v>1.027783097004132</v>
+        <v>42.58424007769262</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11133,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.561484152283033</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>7.577437560478074</v>
       </c>
       <c r="K42" t="n">
         <v>131.9825104815849</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M42" t="n">
         <v>116.626698625586</v>
@@ -11151,7 +11151,7 @@
         <v>101.9573524286611</v>
       </c>
       <c r="O42" t="n">
-        <v>120.6530283274244</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>120.6592788752669</v>
@@ -11160,7 +11160,7 @@
         <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.49804203773589</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,16 +11215,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.79628437712472</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>69.16996059133484</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>105.2836065989273</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>115.6742602693208</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>111.3378805152112</v>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>87.48425302749862</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11312,10 +11312,10 @@
         <v>246.758517458259</v>
       </c>
       <c r="P44" t="n">
-        <v>208.5255628951208</v>
+        <v>139.0811372638148</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>82.62613430751601</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11379,16 +11379,16 @@
         <v>131.9825104815849</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M45" t="n">
         <v>116.626698625586</v>
       </c>
       <c r="N45" t="n">
-        <v>101.9573524286611</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P45" t="n">
         <v>120.6592788752669</v>
@@ -11458,22 +11458,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>105.2836065989273</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>111.3378805152112</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>105.6509998050918</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>42.49154303394164</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.34223702878295</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.4344561747823</v>
+        <v>169.4344561747824</v>
       </c>
       <c r="C11" t="n">
-        <v>145.5527131781278</v>
+        <v>145.5527131781279</v>
       </c>
       <c r="D11" t="n">
-        <v>133.1193754391763</v>
+        <v>63.49323775398624</v>
       </c>
       <c r="E11" t="n">
         <v>166.8261278585852</v>
       </c>
       <c r="F11" t="n">
-        <v>115.8838045398685</v>
+        <v>198.5464654369625</v>
       </c>
       <c r="G11" t="n">
         <v>131.5106423454656</v>
       </c>
       <c r="H11" t="n">
-        <v>142.2448436041342</v>
+        <v>59.58218270704035</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681797</v>
+        <v>35.89105811681803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.588811635894</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.49679044823571</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>61.17792053387518</v>
+        <v>116.2269994061011</v>
       </c>
       <c r="W11" t="n">
         <v>133.2436796227159</v>
       </c>
       <c r="X11" t="n">
-        <v>155.1299300916551</v>
+        <v>155.1299300916552</v>
       </c>
       <c r="Y11" t="n">
-        <v>94.9701223183049</v>
+        <v>177.6327832153989</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499648</v>
+        <v>1.340816169499703</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.99526198919034</v>
+        <v>2.995261989190396</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.4344561747823</v>
+        <v>86.7717952776884</v>
       </c>
       <c r="C14" t="n">
-        <v>145.5527131781278</v>
+        <v>145.5527131781279</v>
       </c>
       <c r="D14" t="n">
         <v>133.1193754391763</v>
       </c>
       <c r="E14" t="n">
-        <v>94.01685614042481</v>
+        <v>166.8261278585852</v>
       </c>
       <c r="F14" t="n">
         <v>115.8838045398685</v>
@@ -23510,10 +23510,10 @@
         <v>131.5106423454656</v>
       </c>
       <c r="H14" t="n">
-        <v>142.2448436041343</v>
+        <v>109.7845763678026</v>
       </c>
       <c r="I14" t="n">
-        <v>35.89105811681797</v>
+        <v>35.89105811681803</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.58881163589399</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>17.76019284593445</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823571</v>
+        <v>45.49679044823577</v>
       </c>
       <c r="V14" t="n">
-        <v>116.226999406101</v>
+        <v>116.2269994061011</v>
       </c>
       <c r="W14" t="n">
         <v>133.2436796227159</v>
       </c>
       <c r="X14" t="n">
-        <v>155.1299300916551</v>
+        <v>155.1299300916552</v>
       </c>
       <c r="Y14" t="n">
-        <v>94.9701223183049</v>
+        <v>177.6327832153989</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499648</v>
+        <v>1.340816169499703</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.99526198919034</v>
+        <v>2.995261989190396</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.413447468072263e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>286627.8984323495</v>
+      </c>
+      <c r="C2" t="n">
         <v>286627.8984323494</v>
-      </c>
-      <c r="C2" t="n">
-        <v>286627.8984323495</v>
       </c>
       <c r="D2" t="n">
         <v>286627.8984323495</v>
       </c>
       <c r="E2" t="n">
+        <v>246996.7789316557</v>
+      </c>
+      <c r="F2" t="n">
         <v>246996.7789316556</v>
-      </c>
-      <c r="F2" t="n">
-        <v>246996.7789316555</v>
       </c>
       <c r="G2" t="n">
         <v>287208.5283790242</v>
@@ -26335,25 +26335,25 @@
         <v>287208.5283790242</v>
       </c>
       <c r="J2" t="n">
-        <v>287208.5283790238</v>
+        <v>287208.5283790242</v>
       </c>
       <c r="K2" t="n">
+        <v>287208.528379024</v>
+      </c>
+      <c r="L2" t="n">
+        <v>287208.528379024</v>
+      </c>
+      <c r="M2" t="n">
         <v>287208.5283790241</v>
       </c>
-      <c r="L2" t="n">
-        <v>287208.5283790239</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>287208.5283790241</v>
+      </c>
+      <c r="O2" t="n">
         <v>287208.5283790242</v>
       </c>
-      <c r="N2" t="n">
-        <v>287208.5283790239</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>287208.5283790244</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287208.5283790241</v>
       </c>
     </row>
     <row r="3">
@@ -26390,19 +26390,19 @@
         <v>161490.7661438377</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>105208.5138763725</v>
       </c>
       <c r="M3" t="n">
-        <v>18266.68546817853</v>
+        <v>18266.68546817846</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>65067.86905818313</v>
+        <v>65067.86905818307</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>468402.5158330766</v>
       </c>
       <c r="J4" t="n">
-        <v>471274.3445339245</v>
+        <v>471274.3445339244</v>
       </c>
       <c r="K4" t="n">
         <v>471274.3445339244</v>
@@ -26454,10 +26454,10 @@
         <v>470303.7233314326</v>
       </c>
       <c r="O4" t="n">
+        <v>470303.7233314324</v>
+      </c>
+      <c r="P4" t="n">
         <v>470303.7233314325</v>
-      </c>
-      <c r="P4" t="n">
-        <v>470303.7233314326</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>24501.91760808066</v>
       </c>
       <c r="G5" t="n">
-        <v>35557.88579942162</v>
+        <v>35557.88579942161</v>
       </c>
       <c r="H5" t="n">
-        <v>35557.88579942162</v>
+        <v>35557.88579942161</v>
       </c>
       <c r="I5" t="n">
         <v>35557.88579942161</v>
       </c>
       <c r="J5" t="n">
-        <v>47597.11518397228</v>
+        <v>47597.11518397227</v>
       </c>
       <c r="K5" t="n">
         <v>47597.11518397227</v>
@@ -26500,16 +26500,16 @@
         <v>47597.11518397227</v>
       </c>
       <c r="M5" t="n">
-        <v>44490.80287720933</v>
+        <v>44490.80287720932</v>
       </c>
       <c r="N5" t="n">
         <v>44490.80287720933</v>
       </c>
       <c r="O5" t="n">
-        <v>44490.80287720934</v>
+        <v>44490.80287720932</v>
       </c>
       <c r="P5" t="n">
-        <v>44490.80287720933</v>
+        <v>44490.80287720932</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-250377.4473045304</v>
+        <v>-250381.9136887355</v>
       </c>
       <c r="C6" t="n">
-        <v>-250377.4473045303</v>
+        <v>-250381.9136887356</v>
       </c>
       <c r="D6" t="n">
-        <v>-250377.4473045303</v>
+        <v>-250381.9136887355</v>
       </c>
       <c r="E6" t="n">
-        <v>-448095.9324505865</v>
+        <v>-448405.2536001816</v>
       </c>
       <c r="F6" t="n">
-        <v>-175995.8114067198</v>
+        <v>-176305.1325563149</v>
       </c>
       <c r="G6" t="n">
-        <v>-321960.3871298464</v>
+        <v>-321960.3871298465</v>
       </c>
       <c r="H6" t="n">
         <v>-216751.8732534739</v>
       </c>
       <c r="I6" t="n">
-        <v>-216751.8732534739</v>
+        <v>-216751.873253474</v>
       </c>
       <c r="J6" t="n">
-        <v>-393153.6974827107</v>
+        <v>-393153.6974827101</v>
       </c>
       <c r="K6" t="n">
         <v>-231662.9313388726</v>
@@ -26555,13 +26555,13 @@
         <v>-245852.6832977962</v>
       </c>
       <c r="N6" t="n">
-        <v>-227585.9978296179</v>
+        <v>-227585.9978296178</v>
       </c>
       <c r="O6" t="n">
         <v>-292653.8668878006</v>
       </c>
       <c r="P6" t="n">
-        <v>-227585.9978296178</v>
+        <v>-227585.9978296175</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G2" t="n">
         <v>336.1634265485166</v>
@@ -26716,16 +26716,16 @@
         <v>212.8454786681945</v>
       </c>
       <c r="M2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N2" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="O2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="P2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="3">
@@ -26808,16 +26808,16 @@
         <v>82.66266089709399</v>
       </c>
       <c r="I4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="J4" t="n">
-        <v>451.1897323592892</v>
+        <v>451.189732359289</v>
       </c>
       <c r="K4" t="n">
-        <v>451.1897323592889</v>
+        <v>451.189732359289</v>
       </c>
       <c r="L4" t="n">
-        <v>451.1897323592889</v>
+        <v>451.189732359289</v>
       </c>
       <c r="M4" t="n">
         <v>368.527071462195</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.33483632272885</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>131.5106423454656</v>
       </c>
       <c r="M2" t="n">
-        <v>22.83335683522316</v>
+        <v>22.83335683522307</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>81.3348363227289</v>
+        <v>81.33483632272885</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>368.5270714621953</v>
+        <v>368.527071462195</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272885</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="C11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="J11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K11" t="n">
-        <v>5.189869058379848</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="O11" t="n">
-        <v>199.9334682413975</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.35405989412962</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Q11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="R11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="S11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>186.3762926399101</v>
       </c>
       <c r="C12" t="n">
         <v>187.5181515243659</v>
@@ -28181,61 +28181,61 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>162.9007902757557</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H12" t="n">
-        <v>204.652784203051</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I12" t="n">
-        <v>196.3649210721274</v>
+        <v>113.7022601750334</v>
       </c>
       <c r="J12" t="n">
-        <v>133.5712356903773</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9825104815849</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3824293501763</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>116.626698625586</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>101.9573524286611</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>120.6530283274244</v>
       </c>
       <c r="P12" t="n">
-        <v>120.6592788752669</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.1741180358727</v>
+        <v>121.6854945822236</v>
       </c>
       <c r="R12" t="n">
-        <v>163.8163636610262</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4706822307765</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>204.652784203051</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8498196468471</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D13" t="n">
-        <v>204.652784203051</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>204.652784203051</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>204.652784203051</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H13" t="n">
         <v>165.7761987305484</v>
       </c>
       <c r="I13" t="n">
-        <v>164.6899393962033</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="J13" t="n">
-        <v>141.6526168753024</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K13" t="n">
-        <v>135.5701020288577</v>
+        <v>78.0650610835593</v>
       </c>
       <c r="L13" t="n">
         <v>136.6294461548476</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36707598317781</v>
+        <v>140.0413362524986</v>
       </c>
       <c r="N13" t="n">
-        <v>15.69057404649868</v>
+        <v>98.35323494359267</v>
       </c>
       <c r="O13" t="n">
-        <v>36.71262952723531</v>
+        <v>119.3752904243293</v>
       </c>
       <c r="P13" t="n">
-        <v>57.82293582615034</v>
+        <v>145.307188853649</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.652784203051</v>
+        <v>169.105275865629</v>
       </c>
       <c r="R13" t="n">
         <v>203.1862066784475</v>
       </c>
       <c r="S13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="14">
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="C14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="D14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="F14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="G14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="H14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="I14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="J14" t="n">
-        <v>75.75587581289102</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="L14" t="n">
-        <v>204.652784203051</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.35405989412962</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Q14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1223785227293</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="S14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>204.652784203051</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>179.2148251204186</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>204.652784203051</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H15" t="n">
         <v>125.6730735315877</v>
@@ -28427,16 +28427,16 @@
         <v>113.7022601750334</v>
       </c>
       <c r="J15" t="n">
-        <v>125.2027935130383</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9825104815849</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3824293501763</v>
+        <v>53.51293700396879</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N15" t="n">
         <v>101.9573524286611</v>
@@ -28445,34 +28445,34 @@
         <v>120.6530283274244</v>
       </c>
       <c r="P15" t="n">
-        <v>120.6592788752669</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.1741180358727</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R15" t="n">
-        <v>204.652784203051</v>
+        <v>163.8163636610262</v>
       </c>
       <c r="S15" t="n">
-        <v>204.652784203051</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="16">
@@ -28488,10 +28488,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>204.652784203051</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>204.652784203051</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -28506,25 +28506,25 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J16" t="n">
-        <v>204.652784203051</v>
+        <v>141.6526168753024</v>
       </c>
       <c r="K16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="L16" t="n">
-        <v>31.34583955592036</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="M16" t="n">
-        <v>24.36707598317781</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="N16" t="n">
-        <v>163.6049480175351</v>
+        <v>127.0284545617099</v>
       </c>
       <c r="O16" t="n">
-        <v>36.71262952723531</v>
+        <v>119.3752904243293</v>
       </c>
       <c r="P16" t="n">
-        <v>57.82293582615034</v>
+        <v>145.307188853649</v>
       </c>
       <c r="Q16" t="n">
         <v>169.105275865629</v>
@@ -28533,25 +28533,25 @@
         <v>203.1862066784475</v>
       </c>
       <c r="S16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="T16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="U16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="V16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="W16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="X16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030509</v>
       </c>
     </row>
     <row r="17">
@@ -28585,7 +28585,7 @@
         <v>240.543842319869</v>
       </c>
       <c r="J17" t="n">
-        <v>185.3304824443948</v>
+        <v>267.9931433414888</v>
       </c>
       <c r="K17" t="n">
         <v>215.2360964044946</v>
@@ -28597,31 +28597,31 @@
         <v>207.4839727133473</v>
       </c>
       <c r="N17" t="n">
-        <v>287.8182379520349</v>
+        <v>269.1946895218787</v>
       </c>
       <c r="O17" t="n">
-        <v>292.8186070271571</v>
+        <v>210.1559461300631</v>
       </c>
       <c r="P17" t="n">
-        <v>304.5422836863444</v>
+        <v>221.8796227892504</v>
       </c>
       <c r="Q17" t="n">
-        <v>305.3095065133064</v>
+        <v>225.986751107004</v>
       </c>
       <c r="R17" t="n">
         <v>236.7066186004218</v>
       </c>
       <c r="S17" t="n">
-        <v>227.241595838945</v>
+        <v>309.904256736039</v>
       </c>
       <c r="T17" t="n">
         <v>222.4129770489855</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1495746512867</v>
+        <v>332.8122355483807</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="W17" t="n">
         <v>336.1634265485166</v>
@@ -28819,7 +28819,7 @@
         <v>336.1634265485166</v>
       </c>
       <c r="I20" t="n">
-        <v>240.543842319869</v>
+        <v>323.2065032169629</v>
       </c>
       <c r="J20" t="n">
         <v>185.3304824443948</v>
@@ -28828,10 +28828,10 @@
         <v>215.2360964044946</v>
       </c>
       <c r="L20" t="n">
-        <v>221.5445116161334</v>
+        <v>285.5836240830711</v>
       </c>
       <c r="M20" t="n">
-        <v>286.8067281196496</v>
+        <v>207.4839727133473</v>
       </c>
       <c r="N20" t="n">
         <v>205.1555770549409</v>
@@ -28852,13 +28852,13 @@
         <v>227.241595838945</v>
       </c>
       <c r="T20" t="n">
-        <v>305.0756379460794</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U20" t="n">
         <v>332.8122355483807</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="W20" t="n">
         <v>336.1634265485166</v>
@@ -29065,13 +29065,13 @@
         <v>215.2360964044946</v>
       </c>
       <c r="L23" t="n">
-        <v>304.2071725132274</v>
+        <v>221.5445116161334</v>
       </c>
       <c r="M23" t="n">
         <v>207.4839727133473</v>
       </c>
       <c r="N23" t="n">
-        <v>269.1946895218786</v>
+        <v>205.1555770549409</v>
       </c>
       <c r="O23" t="n">
         <v>210.1559461300631</v>
@@ -29086,13 +29086,13 @@
         <v>319.3692794975158</v>
       </c>
       <c r="S23" t="n">
-        <v>227.241595838945</v>
+        <v>309.904256736039</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4129770489855</v>
+        <v>286.4520895159231</v>
       </c>
       <c r="U23" t="n">
-        <v>332.8122355483806</v>
+        <v>332.8122355483807</v>
       </c>
       <c r="V23" t="n">
         <v>336.1634265485166</v>
@@ -29305,7 +29305,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8454786681968</v>
+        <v>212.8454786681951</v>
       </c>
       <c r="N26" t="n">
         <v>212.8454786681945</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29363,19 +29363,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>148.7381381529399</v>
       </c>
       <c r="H27" t="n">
-        <v>18.71367687954795</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J27" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R27" t="n">
         <v>134.3183216232903</v>
@@ -29414,13 +29414,13 @@
         <v>212.8454786681945</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8454786681945</v>
+        <v>52.65086639160352</v>
       </c>
       <c r="X27" t="n">
         <v>212.8454786681945</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="28">
@@ -29442,7 +29442,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G28" t="n">
         <v>168.695353780268</v>
@@ -29451,31 +29451,31 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I28" t="n">
-        <v>164.6899393962033</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K28" t="n">
         <v>66.40014143752288</v>
       </c>
       <c r="L28" t="n">
-        <v>31.34583955592036</v>
+        <v>53.29952023695299</v>
       </c>
       <c r="M28" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N28" t="n">
         <v>15.69057404649868</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8454786681945</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P28" t="n">
         <v>57.82293582615034</v>
       </c>
       <c r="Q28" t="n">
-        <v>187.6471522686758</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R28" t="n">
         <v>203.1862066784475</v>
@@ -29533,7 +29533,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8454786681951</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K29" t="n">
         <v>212.8454786681945</v>
@@ -29554,7 +29554,7 @@
         <v>212.8454786681945</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681951</v>
       </c>
       <c r="R29" t="n">
         <v>212.8454786681945</v>
@@ -29600,13 +29600,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7381381529399</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I30" t="n">
         <v>107.1407760227504</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R30" t="n">
         <v>134.3183216232903</v>
@@ -29642,16 +29642,16 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7866216018117329</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8454786681945</v>
+        <v>141.9810662866839</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>212.8454786681945</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C31" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29679,7 +29679,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>212.8454786681945</v>
+        <v>189.4428978924022</v>
       </c>
       <c r="G31" t="n">
         <v>168.695353780268</v>
@@ -29688,19 +29688,19 @@
         <v>212.8454786681945</v>
       </c>
       <c r="I31" t="n">
-        <v>164.6899393962033</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J31" t="n">
         <v>119.8563324981777</v>
       </c>
       <c r="K31" t="n">
-        <v>172.7699556331703</v>
+        <v>66.40014143752288</v>
       </c>
       <c r="L31" t="n">
         <v>31.34583955592036</v>
       </c>
       <c r="M31" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N31" t="n">
         <v>15.69057404649868</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7381381529399</v>
@@ -29846,7 +29846,7 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J33" t="n">
         <v>51.86424478979234</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R33" t="n">
         <v>134.3183216232903</v>
@@ -29879,16 +29879,16 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>212.8454786681945</v>
       </c>
-      <c r="U33" t="n">
-        <v>212.8454786681945</v>
-      </c>
-      <c r="V33" t="n">
-        <v>165.048854073684</v>
-      </c>
       <c r="W33" t="n">
-        <v>212.8454786681945</v>
+        <v>141.9810662866843</v>
       </c>
       <c r="X33" t="n">
         <v>212.8454786681945</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.8454786681945</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -29913,7 +29913,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.8454786681945</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
@@ -29922,7 +29922,7 @@
         <v>168.695353780268</v>
       </c>
       <c r="H34" t="n">
-        <v>212.8454786681945</v>
+        <v>165.7761987305484</v>
       </c>
       <c r="I34" t="n">
         <v>164.6899393962033</v>
@@ -29934,10 +29934,10 @@
         <v>66.40014143752288</v>
       </c>
       <c r="L34" t="n">
-        <v>31.34583955592036</v>
+        <v>182.2803622973601</v>
       </c>
       <c r="M34" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N34" t="n">
         <v>15.69057404649868</v>
@@ -29946,13 +29946,13 @@
         <v>36.71262952723531</v>
       </c>
       <c r="P34" t="n">
-        <v>131.7134510123497</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.7630388368461</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R34" t="n">
-        <v>212.8454786681945</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S34" t="n">
         <v>212.8454786681945</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K35" t="n">
-        <v>235.6788355034177</v>
+        <v>92.31821870392953</v>
       </c>
       <c r="L35" t="n">
-        <v>155.4323605857118</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="P35" t="n">
-        <v>235.6788355034177</v>
+        <v>221.8796227892504</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.40663715938581</v>
+        <v>225.986751107004</v>
       </c>
       <c r="R35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="S35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="U35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="36">
@@ -30086,13 +30086,13 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J36" t="n">
-        <v>51.86424478979234</v>
+        <v>133.5712356903773</v>
       </c>
       <c r="K36" t="n">
-        <v>131.9825104815849</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>120.3824293501763</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -30101,16 +30101,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>120.6530283274244</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>158.9662292508908</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>142.1741180358727</v>
+        <v>113.5671577215271</v>
       </c>
       <c r="R36" t="n">
-        <v>163.8163636610262</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S36" t="n">
         <v>191.4706822307765</v>
@@ -30119,13 +30119,13 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U36" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V36" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W36" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30144,10 +30144,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
-        <v>235.6788355034177</v>
+        <v>195.3768482171503</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30165,16 +30165,16 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J37" t="n">
-        <v>141.6526168753024</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K37" t="n">
         <v>66.40014143752288</v>
       </c>
       <c r="L37" t="n">
-        <v>154.3310152963168</v>
+        <v>31.34583955592036</v>
       </c>
       <c r="M37" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N37" t="n">
         <v>15.69057404649868</v>
@@ -30186,10 +30186,10 @@
         <v>57.82293582615034</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.7630388368461</v>
+        <v>169.105275865629</v>
       </c>
       <c r="R37" t="n">
-        <v>235.6788355034177</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S37" t="n">
         <v>235.3435685609305</v>
@@ -30198,13 +30198,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W37" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30244,19 +30244,19 @@
         <v>235.6788355034177</v>
       </c>
       <c r="J38" t="n">
-        <v>235.6788355034177</v>
+        <v>164.0641497002999</v>
       </c>
       <c r="K38" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="M38" t="n">
-        <v>72.55306128184276</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="N38" t="n">
-        <v>235.6788355034177</v>
+        <v>205.1555770549409</v>
       </c>
       <c r="O38" t="n">
         <v>235.6788355034177</v>
@@ -30265,7 +30265,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="Q38" t="n">
-        <v>127.6479836586654</v>
+        <v>225.986751107004</v>
       </c>
       <c r="R38" t="n">
         <v>235.6788355034177</v>
@@ -30274,7 +30274,7 @@
         <v>227.241595838945</v>
       </c>
       <c r="T38" t="n">
-        <v>235.6788355034177</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U38" t="n">
         <v>235.6788355034177</v>
@@ -30320,16 +30320,16 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I39" t="n">
-        <v>107.1407760227504</v>
+        <v>113.7022601750334</v>
       </c>
       <c r="J39" t="n">
         <v>133.5712356903773</v>
       </c>
       <c r="K39" t="n">
-        <v>131.9825104815849</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>120.3824293501763</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -30338,13 +30338,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>138.2260029909532</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>142.1741180358727</v>
+        <v>38.92362757150245</v>
       </c>
       <c r="R39" t="n">
         <v>163.8163636610262</v>
@@ -30353,7 +30353,7 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T39" t="n">
-        <v>235.6788355034177</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U39" t="n">
         <v>235.6788355034177</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30399,10 +30399,10 @@
         <v>165.7761987305484</v>
       </c>
       <c r="I40" t="n">
-        <v>164.6899393962033</v>
+        <v>226.0438770556385</v>
       </c>
       <c r="J40" t="n">
-        <v>141.6526168753024</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K40" t="n">
         <v>66.40014143752288</v>
@@ -30411,22 +30411,22 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N40" t="n">
-        <v>213.9516782346244</v>
+        <v>15.69057404649868</v>
       </c>
       <c r="O40" t="n">
-        <v>142.3636293323272</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P40" t="n">
-        <v>145.307188853649</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.105275865629</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R40" t="n">
-        <v>235.6788355034177</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S40" t="n">
         <v>235.3435685609305</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K41" t="n">
-        <v>235.6788355034177</v>
+        <v>139.1683988826269</v>
       </c>
       <c r="L41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M41" t="n">
-        <v>206.5030486437315</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N41" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="P41" t="n">
-        <v>235.6788355034177</v>
+        <v>221.8796227892504</v>
       </c>
       <c r="Q41" t="n">
-        <v>88.40663715938581</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="S41" t="n">
-        <v>227.241595838945</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4129770489855</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="U41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>215.0574447732898</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30557,16 +30557,16 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1407760227504</v>
+        <v>113.7022601750334</v>
       </c>
       <c r="J42" t="n">
-        <v>51.86424478979234</v>
+        <v>125.9937981298992</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>158.6893797258</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -30575,16 +30575,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R42" t="n">
-        <v>163.8163636610262</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S42" t="n">
         <v>191.4706822307765</v>
@@ -30593,13 +30593,13 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U42" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V42" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W42" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30624,7 +30624,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>235.6788355034177</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
         <v>138.9268822184467</v>
@@ -30633,22 +30633,22 @@
         <v>168.695353780268</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7761987305484</v>
+        <v>227.1301363899838</v>
       </c>
       <c r="I43" t="n">
         <v>164.6899393962033</v>
       </c>
       <c r="J43" t="n">
-        <v>119.8563324981777</v>
+        <v>141.6526168753024</v>
       </c>
       <c r="K43" t="n">
-        <v>66.40014143752288</v>
+        <v>135.5701020288577</v>
       </c>
       <c r="L43" t="n">
-        <v>31.34583955592036</v>
+        <v>136.6294461548476</v>
       </c>
       <c r="M43" t="n">
-        <v>24.36707598317781</v>
+        <v>140.0413362524986</v>
       </c>
       <c r="N43" t="n">
         <v>15.69057404649868</v>
@@ -30657,28 +30657,28 @@
         <v>142.3636293323272</v>
       </c>
       <c r="P43" t="n">
-        <v>57.82293582615034</v>
+        <v>145.307188853649</v>
       </c>
       <c r="Q43" t="n">
         <v>169.105275865629</v>
       </c>
       <c r="R43" t="n">
-        <v>216.6589247499019</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S43" t="n">
         <v>235.3435685609305</v>
       </c>
       <c r="T43" t="n">
-        <v>235.6788355034177</v>
+        <v>223.7383953681803</v>
       </c>
       <c r="U43" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V43" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W43" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K44" t="n">
-        <v>34.85546956931465</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="L44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>235.6788355034177</v>
+        <v>82.79848552543562</v>
       </c>
       <c r="Q44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="R44" t="n">
-        <v>235.6788355034177</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S44" t="n">
-        <v>227.241595838945</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="U44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="45">
@@ -30782,7 +30782,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>210.1345222154235</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30803,16 +30803,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>120.3824293501763</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>101.9573524286611</v>
       </c>
       <c r="O45" t="n">
-        <v>120.6530283274244</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>142.1741180358727</v>
       </c>
       <c r="R45" t="n">
-        <v>163.8163636610262</v>
+        <v>202.1233140366503</v>
       </c>
       <c r="S45" t="n">
         <v>191.4706822307765</v>
@@ -30830,13 +30830,13 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U45" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V45" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W45" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30876,28 +30876,28 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J46" t="n">
-        <v>235.6788355034177</v>
+        <v>141.6526168753024</v>
       </c>
       <c r="K46" t="n">
         <v>135.5701020288577</v>
       </c>
       <c r="L46" t="n">
-        <v>162.0190800246172</v>
+        <v>150.7616920538053</v>
       </c>
       <c r="M46" t="n">
         <v>140.0413362524986</v>
       </c>
       <c r="N46" t="n">
-        <v>15.69057404649868</v>
+        <v>127.0284545617099</v>
       </c>
       <c r="O46" t="n">
-        <v>36.71262952723531</v>
+        <v>142.3636293323272</v>
       </c>
       <c r="P46" t="n">
-        <v>102.8156458197073</v>
+        <v>145.307188853649</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7630388368461</v>
+        <v>169.105275865629</v>
       </c>
       <c r="R46" t="n">
         <v>203.1862066784475</v>
@@ -30909,13 +30909,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H11" t="n">
         <v>4.289083111583158</v>
@@ -31759,31 +31759,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J11" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K11" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L11" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M11" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N11" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O11" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P11" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R11" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S11" t="n">
         <v>9.543510939114002</v>
@@ -31792,7 +31792,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U11" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I12" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J12" t="n">
         <v>21.17066884295609</v>
@@ -31847,16 +31847,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M12" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N12" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O12" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P12" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q12" t="n">
         <v>28.60364634907358</v>
@@ -31865,10 +31865,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474212119420368</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H13" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I13" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J13" t="n">
         <v>13.28179728076079</v>
@@ -31929,7 +31929,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N13" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O13" t="n">
         <v>26.55334757892103</v>
@@ -31944,10 +31944,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S13" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024698260056125</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H14" t="n">
         <v>4.289083111583158</v>
@@ -31996,31 +31996,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J14" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K14" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L14" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M14" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N14" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O14" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P14" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R14" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S14" t="n">
         <v>9.543510939114002</v>
@@ -32029,7 +32029,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U14" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I15" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J15" t="n">
         <v>21.17066884295609</v>
@@ -32084,16 +32084,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M15" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N15" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O15" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P15" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q15" t="n">
         <v>28.60364634907358</v>
@@ -32102,10 +32102,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474212119420368</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H16" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I16" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J16" t="n">
         <v>13.28179728076079</v>
@@ -32166,7 +32166,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N16" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O16" t="n">
         <v>26.55334757892103</v>
@@ -32181,10 +32181,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S16" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024698260056125</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H17" t="n">
         <v>4.289083111583158</v>
@@ -32233,31 +32233,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J17" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K17" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L17" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M17" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N17" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O17" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P17" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R17" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S17" t="n">
         <v>9.543510939114002</v>
@@ -32266,7 +32266,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U17" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I18" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J18" t="n">
         <v>21.17066884295609</v>
@@ -32321,16 +32321,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M18" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N18" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O18" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P18" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q18" t="n">
         <v>28.60364634907358</v>
@@ -32339,10 +32339,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474212119420368</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H19" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I19" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J19" t="n">
         <v>13.28179728076079</v>
@@ -32403,7 +32403,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N19" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O19" t="n">
         <v>26.55334757892103</v>
@@ -32418,10 +32418,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S19" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024698260056125</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H20" t="n">
         <v>4.289083111583158</v>
@@ -32470,31 +32470,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J20" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K20" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L20" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M20" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N20" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O20" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P20" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R20" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S20" t="n">
         <v>9.543510939114002</v>
@@ -32503,7 +32503,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U20" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I21" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J21" t="n">
         <v>21.17066884295609</v>
@@ -32558,16 +32558,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M21" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N21" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O21" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P21" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q21" t="n">
         <v>28.60364634907358</v>
@@ -32576,10 +32576,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474212119420368</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H22" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I22" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J22" t="n">
         <v>13.28179728076079</v>
@@ -32640,7 +32640,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N22" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O22" t="n">
         <v>26.55334757892103</v>
@@ -32655,10 +32655,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S22" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024698260056125</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H23" t="n">
         <v>4.289083111583158</v>
@@ -32707,31 +32707,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J23" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K23" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L23" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M23" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N23" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O23" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P23" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R23" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S23" t="n">
         <v>9.543510939114002</v>
@@ -32740,7 +32740,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U23" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I24" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J24" t="n">
         <v>21.17066884295609</v>
@@ -32795,16 +32795,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M24" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N24" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O24" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P24" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q24" t="n">
         <v>28.60364634907358</v>
@@ -32813,10 +32813,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S24" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474212119420368</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H25" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I25" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J25" t="n">
         <v>13.28179728076079</v>
@@ -32877,7 +32877,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N25" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O25" t="n">
         <v>26.55334757892103</v>
@@ -32892,10 +32892,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S25" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024698260056125</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H26" t="n">
         <v>4.289083111583158</v>
@@ -32944,31 +32944,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J26" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K26" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L26" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M26" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N26" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O26" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P26" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R26" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S26" t="n">
         <v>9.543510939114002</v>
@@ -32977,7 +32977,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U26" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I27" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J27" t="n">
         <v>21.17066884295609</v>
@@ -33032,16 +33032,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M27" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N27" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O27" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P27" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q27" t="n">
         <v>28.60364634907358</v>
@@ -33050,10 +33050,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474212119420368</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H28" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I28" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J28" t="n">
         <v>13.28179728076079</v>
@@ -33114,7 +33114,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N28" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O28" t="n">
         <v>26.55334757892103</v>
@@ -33129,10 +33129,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S28" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024698260056125</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H29" t="n">
         <v>4.289083111583158</v>
@@ -33181,31 +33181,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J29" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K29" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L29" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M29" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N29" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O29" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P29" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R29" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S29" t="n">
         <v>9.543510939114002</v>
@@ -33214,7 +33214,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U29" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I30" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J30" t="n">
         <v>21.17066884295609</v>
@@ -33269,16 +33269,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M30" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N30" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O30" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P30" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q30" t="n">
         <v>28.60364634907358</v>
@@ -33287,10 +33287,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S30" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474212119420368</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H31" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I31" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J31" t="n">
         <v>13.28179728076079</v>
@@ -33351,7 +33351,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N31" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O31" t="n">
         <v>26.55334757892103</v>
@@ -33366,10 +33366,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S31" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024698260056125</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H32" t="n">
         <v>4.289083111583158</v>
@@ -33418,31 +33418,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J32" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K32" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L32" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M32" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N32" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O32" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P32" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R32" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S32" t="n">
         <v>9.543510939114002</v>
@@ -33451,7 +33451,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U32" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I33" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J33" t="n">
         <v>21.17066884295609</v>
@@ -33506,16 +33506,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M33" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N33" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O33" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P33" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q33" t="n">
         <v>28.60364634907358</v>
@@ -33524,10 +33524,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474212119420368</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H34" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I34" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J34" t="n">
         <v>13.28179728076079</v>
@@ -33588,7 +33588,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N34" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O34" t="n">
         <v>26.55334757892103</v>
@@ -33603,10 +33603,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S34" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024698260056125</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H35" t="n">
         <v>4.289083111583158</v>
@@ -33655,31 +33655,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J35" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K35" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L35" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M35" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N35" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O35" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P35" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R35" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S35" t="n">
         <v>9.543510939114002</v>
@@ -33688,7 +33688,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U35" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I36" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J36" t="n">
         <v>21.17066884295609</v>
@@ -33743,16 +33743,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M36" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N36" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O36" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P36" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q36" t="n">
         <v>28.60364634907358</v>
@@ -33761,10 +33761,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474212119420368</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H37" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I37" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J37" t="n">
         <v>13.28179728076079</v>
@@ -33825,7 +33825,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N37" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O37" t="n">
         <v>26.55334757892103</v>
@@ -33840,10 +33840,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S37" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024698260056125</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H38" t="n">
         <v>4.289083111583158</v>
@@ -33892,31 +33892,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J38" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K38" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L38" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M38" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N38" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O38" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P38" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R38" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S38" t="n">
         <v>9.543510939114002</v>
@@ -33925,7 +33925,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U38" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I39" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J39" t="n">
         <v>21.17066884295609</v>
@@ -33980,16 +33980,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M39" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N39" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O39" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P39" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q39" t="n">
         <v>28.60364634907358</v>
@@ -33998,10 +33998,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474212119420368</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H40" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I40" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J40" t="n">
         <v>13.28179728076079</v>
@@ -34062,7 +34062,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N40" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O40" t="n">
         <v>26.55334757892103</v>
@@ -34077,10 +34077,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S40" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024698260056125</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H41" t="n">
         <v>4.289083111583158</v>
@@ -34129,31 +34129,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J41" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K41" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L41" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M41" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N41" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O41" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P41" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R41" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S41" t="n">
         <v>9.543510939114002</v>
@@ -34162,7 +34162,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U41" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I42" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J42" t="n">
         <v>21.17066884295609</v>
@@ -34217,16 +34217,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M42" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N42" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O42" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P42" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q42" t="n">
         <v>28.60364634907358</v>
@@ -34235,10 +34235,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S42" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474212119420368</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H43" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I43" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J43" t="n">
         <v>13.28179728076079</v>
@@ -34299,7 +34299,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N43" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O43" t="n">
         <v>26.55334757892103</v>
@@ -34314,10 +34314,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S43" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024698260056125</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H44" t="n">
         <v>4.289083111583158</v>
@@ -34366,31 +34366,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J44" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K44" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L44" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M44" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N44" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O44" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P44" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R44" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S44" t="n">
         <v>9.543510939114002</v>
@@ -34399,7 +34399,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U44" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I45" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J45" t="n">
         <v>21.17066884295609</v>
@@ -34454,16 +34454,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M45" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N45" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O45" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P45" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q45" t="n">
         <v>28.60364634907358</v>
@@ -34472,10 +34472,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S45" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474212119420368</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H46" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I46" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J46" t="n">
         <v>13.28179728076079</v>
@@ -34536,7 +34536,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N46" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O46" t="n">
         <v>26.55334757892103</v>
@@ -34551,10 +34551,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S46" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024698260056125</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.32230175865617</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="L11" t="n">
-        <v>49.09995541255844</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M11" t="n">
-        <v>82.66266089709399</v>
+        <v>76.282889562642</v>
       </c>
       <c r="N11" t="n">
-        <v>78.2452299640248</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4.787523487835164</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>10.53040568032175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35462,7 +35462,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9.625798242244333</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -35477,29 +35477,29 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>14.16265212281574</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>78.97971067146334</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
@@ -35510,10 +35510,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>70.33446257976063</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>13.18210197227447</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -35541,34 +35541,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.03586353808291</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.392638674874714</v>
+        <v>38.19560323107859</v>
       </c>
       <c r="D13" t="n">
-        <v>59.47013395234029</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>62.97664299082601</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65.72590198460435</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.95743042278299</v>
+        <v>35.95743042278293</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.96284480684762</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>11.66491964603643</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,16 +35577,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.54750833742199</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>73.20978065904981</v>
       </c>
       <c r="K14" t="n">
         <v>82.66266089709399</v>
@@ -35653,22 +35653,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>78.24522996402482</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="N14" t="n">
-        <v>78.2452299640248</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.077525442277526</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.5304056803217</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35699,22 +35699,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>27.90228980538521</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>45.48046912647246</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>20.39138600049025</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>55.91464605011106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>65.24007298889421</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35747,10 +35747,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.83642054202478</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.18210197227453</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35784,10 +35784,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.47013395234029</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>62.97664299082601</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.00016732774855</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.08268217419328</v>
+        <v>69.08268217419322</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>74.74932887909399</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>64.61144795055236</v>
       </c>
       <c r="N16" t="n">
-        <v>36.57649345582515</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35893,31 +35893,31 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
+        <v>64.03911246693775</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="O17" t="n">
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="P17" t="n">
-        <v>82.66266089709399</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>79.32275540630231</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>15.28364293936454</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,10 +36124,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>64.03911246693775</v>
       </c>
       <c r="M20" t="n">
-        <v>79.32275540630231</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36148,13 +36148,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>15.28364293936454</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>64.03911246693767</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -36379,19 +36379,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>64.03911246693764</v>
       </c>
       <c r="U23" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2836429393646</v>
+        <v>15.28364293936454</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0896028553034</v>
+        <v>137.0896028553035</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6556096098146</v>
+        <v>207.6556096098147</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9454340807529</v>
+        <v>261.945434080753</v>
       </c>
       <c r="M26" t="n">
-        <v>296.646275658205</v>
+        <v>296.6462756582033</v>
       </c>
       <c r="N26" t="n">
         <v>291.0907086322193</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4480499963903</v>
+        <v>249.4480499963904</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4914187740648</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q26" t="n">
         <v>124.4388415088087</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72310014546521</v>
+        <v>18.72310014546527</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39096310256611</v>
+        <v>32.85484423595641</v>
       </c>
       <c r="L27" t="n">
         <v>119.9221144064652</v>
@@ -36683,13 +36683,13 @@
         <v>185.150182684414</v>
       </c>
       <c r="N27" t="n">
-        <v>202.1203872793528</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36738,7 +36738,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>73.91859644974787</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,16 +36747,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.15553927199119</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>92.9891461700168</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>21.95368068103262</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,13 +36765,13 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1328491409591</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.88411343182979</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.089602855304</v>
+        <v>137.0896028553035</v>
       </c>
       <c r="K29" t="n">
         <v>207.6556096098147</v>
@@ -36850,7 +36850,7 @@
         <v>199.4914187740649</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4388415088087</v>
+        <v>124.4388415088093</v>
       </c>
       <c r="R29" t="n">
         <v>18.72310014546527</v>
@@ -36914,10 +36914,10 @@
         <v>39.39096310256611</v>
       </c>
       <c r="L30" t="n">
-        <v>64.52083617937106</v>
+        <v>119.9221144064652</v>
       </c>
       <c r="M30" t="n">
-        <v>185.150182684414</v>
+        <v>44.04430925390835</v>
       </c>
       <c r="N30" t="n">
         <v>208.6565061459616</v>
@@ -36926,7 +36926,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,10 +36963,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>35.22855800322642</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.38829769622217</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36975,7 +36975,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>73.91859644974787</v>
+        <v>50.51601567395553</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,13 +36984,13 @@
         <v>47.06927993764612</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.15553927199119</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.3698141956475</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0907086322193</v>
+        <v>291.0907086322194</v>
       </c>
       <c r="O32" t="n">
         <v>249.4480499963904</v>
@@ -37090,7 +37090,7 @@
         <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72310014546525</v>
+        <v>18.72310014546531</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39096310256611</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>119.9221144064652</v>
+        <v>18.20720407852509</v>
       </c>
       <c r="M33" t="n">
         <v>185.150182684414</v>
       </c>
       <c r="N33" t="n">
-        <v>67.55063271545372</v>
+        <v>208.6565061459616</v>
       </c>
       <c r="O33" t="n">
         <v>134.5697545638963</v>
       </c>
       <c r="P33" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37200,7 +37200,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.22855800322642</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -37209,7 +37209,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16933745596953</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.06927993764612</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>150.9345227414398</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>73.89051518619938</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.08243983134849</v>
       </c>
       <c r="R34" t="n">
-        <v>9.65927198974706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>110.1628777028733</v>
+        <v>159.9229596905266</v>
       </c>
       <c r="K35" t="n">
-        <v>230.4889664450378</v>
+        <v>87.12834964554969</v>
       </c>
       <c r="L35" t="n">
-        <v>204.5323159982702</v>
+        <v>284.7787909159761</v>
       </c>
       <c r="M35" t="n">
-        <v>83.80079699000819</v>
+        <v>319.4796324934258</v>
       </c>
       <c r="N35" t="n">
         <v>313.9240654674425</v>
@@ -37321,7 +37321,7 @@
         <v>272.2814068316135</v>
       </c>
       <c r="P35" t="n">
-        <v>222.3247756092881</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37330,10 +37330,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.437239664472672</v>
+        <v>8.437239664472616</v>
       </c>
       <c r="T35" t="n">
-        <v>13.26585845443222</v>
+        <v>13.26585845443216</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,10 +37400,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>38.30695037562388</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>38.30695037562405</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37440,10 +37440,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>69.22165453144532</v>
+        <v>28.91966724517799</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>90.49618525270691</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>17.70156914146918</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>32.49262882497022</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>159.9229596905267</v>
+        <v>88.30827388740886</v>
       </c>
       <c r="K38" t="n">
         <v>230.4889664450378</v>
       </c>
       <c r="L38" t="n">
-        <v>49.09995541255844</v>
+        <v>284.7787909159761</v>
       </c>
       <c r="M38" t="n">
-        <v>156.353858271851</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N38" t="n">
-        <v>313.9240654674425</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>272.2814068316135</v>
@@ -37570,7 +37570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>13.26585845443222</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>17.57297466352875</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>38.30695037562388</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37649,7 +37649,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>20.73397571209514</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>58.06191483844958</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.35393765943515</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>86.9232236729145</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>32.49262882497022</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>159.9229596905267</v>
+        <v>159.9229596905266</v>
       </c>
       <c r="K41" t="n">
-        <v>230.4889664450379</v>
+        <v>133.978529824247</v>
       </c>
       <c r="L41" t="n">
-        <v>284.7787909159762</v>
+        <v>284.7787909159761</v>
       </c>
       <c r="M41" t="n">
-        <v>290.3038456337397</v>
+        <v>319.4796324934258</v>
       </c>
       <c r="N41" t="n">
-        <v>30.5232584484768</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O41" t="n">
-        <v>240.8757064203933</v>
+        <v>272.2814068316135</v>
       </c>
       <c r="P41" t="n">
-        <v>222.3247756092881</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>147.2721983440318</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>41.55645698068837</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>8.437239664472616</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.26585845443216</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37832,7 +37832,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>38.30695037562405</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>38.30695037562371</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>58.06191483844952</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>94.00269429119274</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>61.35393765943538</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>13.47271807145442</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>11.94044013523741</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.34835305902284</v>
+        <v>159.9229596905266</v>
       </c>
       <c r="K44" t="n">
-        <v>29.6656005109348</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L44" t="n">
         <v>284.7787909159761</v>
       </c>
       <c r="M44" t="n">
-        <v>319.4796324934259</v>
+        <v>319.4796324934258</v>
       </c>
       <c r="N44" t="n">
         <v>313.9240654674425</v>
       </c>
       <c r="O44" t="n">
-        <v>36.60257132819585</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P44" t="n">
-        <v>222.3247756092881</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.2721983440319</v>
+        <v>92.31821870392959</v>
       </c>
       <c r="R44" t="n">
-        <v>41.55645698068842</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.437239664472616</v>
       </c>
       <c r="T44" t="n">
-        <v>13.26585845443222</v>
+        <v>13.26585845443216</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38078,7 +38078,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>38.30695037562388</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>38.30695037562405</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>94.02621862811523</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25.38963386976951</v>
+        <v>119.4158524978849</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
